--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_11_32.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_11_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2480822.887964827</v>
+        <v>2478407.817327877</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8972932.474617383</v>
+        <v>8972932.474617386</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673415</v>
       </c>
     </row>
     <row r="9">
@@ -665,22 +665,22 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>6.84140014930867</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>15.30273751513505</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>6.602605461619503</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -701,7 +701,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -747,64 +747,64 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>12.73205987707308</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="H3" t="n">
+      <c r="V3" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="I3" t="n">
+      <c r="W3" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="J3" t="n">
-        <v>0.7465913262578567</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>13.47865120333094</v>
       </c>
     </row>
     <row r="4">
@@ -856,28 +856,28 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>15.30273751513505</v>
+        <v>13.47865120333094</v>
       </c>
       <c r="S4" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="U4" t="n">
-        <v>10.75721046822444</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -899,13 +899,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>15.30273751513505</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>15.30273751513505</v>
@@ -938,19 +938,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="S5" t="n">
-        <v>3.487951988786145</v>
-      </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>6.602605461619501</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -993,10 +993,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1026,13 +1026,13 @@
         <v>15.30273751513505</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>13.47865120333094</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>12.73205987707308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1060,58 +1060,58 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="V7" t="n">
         <v>13.47865120333094</v>
-      </c>
-      <c r="F7" t="n">
-        <v>15.30273751513505</v>
-      </c>
-      <c r="G7" t="n">
-        <v>15.30273751513505</v>
-      </c>
-      <c r="H7" t="n">
-        <v>15.30273751513505</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1148,13 +1148,13 @@
         <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>6.602605461619507</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,13 +1175,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>15.26809192273228</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1209,70 +1209,70 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>12.73205987707308</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>13.47865120333094</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="F9" t="n">
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>15.30273751513505</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.7465913262578567</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1300,55 +1300,55 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="T10" t="n">
         <v>13.47865120333094</v>
       </c>
-      <c r="G10" t="n">
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="H10" t="n">
-        <v>15.30273751513505</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>15.30273751513505</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1370,22 +1370,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>321.9190111639293</v>
+        <v>235.4322583710746</v>
       </c>
       <c r="D11" t="n">
-        <v>311.3291610136048</v>
+        <v>311.3291610136047</v>
       </c>
       <c r="E11" t="n">
         <v>338.5764894651836</v>
       </c>
       <c r="F11" t="n">
-        <v>363.5221651346333</v>
+        <v>363.5221651346332</v>
       </c>
       <c r="G11" t="n">
-        <v>367.6139367611578</v>
+        <v>367.6139367611577</v>
       </c>
       <c r="H11" t="n">
-        <v>251.7259205542586</v>
+        <v>251.7259205542585</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>66.88419613170377</v>
       </c>
       <c r="T11" t="n">
-        <v>141.1632993528485</v>
+        <v>160.7658560140023</v>
       </c>
       <c r="U11" t="n">
-        <v>207.6449786890064</v>
+        <v>207.6449786890063</v>
       </c>
       <c r="V11" t="n">
         <v>284.3983778630567</v>
@@ -1433,7 +1433,7 @@
         <v>305.8870881103348</v>
       </c>
       <c r="X11" t="n">
-        <v>326.3772200713909</v>
+        <v>326.3772200713908</v>
       </c>
       <c r="Y11" t="n">
         <v>342.8840580489754</v>
@@ -1531,22 +1531,22 @@
         <v>123.8929404915496</v>
       </c>
       <c r="D13" t="n">
-        <v>105.2615924111342</v>
+        <v>105.2615924111341</v>
       </c>
       <c r="E13" t="n">
-        <v>103.080082039491</v>
+        <v>103.0800820394909</v>
       </c>
       <c r="F13" t="n">
         <v>102.067167415853</v>
       </c>
       <c r="G13" t="n">
-        <v>14.06458319255996</v>
+        <v>14.06458319256083</v>
       </c>
       <c r="H13" t="n">
-        <v>101.5849552440131</v>
+        <v>101.584955244013</v>
       </c>
       <c r="I13" t="n">
-        <v>53.62029814512876</v>
+        <v>53.62029814512873</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.50790228103332</v>
+        <v>46.5079022810333</v>
       </c>
       <c r="S13" t="n">
         <v>146.77545631515</v>
       </c>
       <c r="T13" t="n">
-        <v>176.283407974083</v>
+        <v>176.2834079740829</v>
       </c>
       <c r="U13" t="n">
-        <v>242.8590853343431</v>
+        <v>242.859085334343</v>
       </c>
       <c r="V13" t="n">
         <v>208.7837627167498</v>
@@ -1591,7 +1591,7 @@
         <v>243.1691177295128</v>
       </c>
       <c r="X13" t="n">
-        <v>182.355774781959</v>
+        <v>182.3557747819589</v>
       </c>
       <c r="Y13" t="n">
         <v>175.2307727450166</v>
@@ -1607,7 +1607,7 @@
         <v>339.3799610564024</v>
       </c>
       <c r="C14" t="n">
-        <v>321.9190111639293</v>
+        <v>321.9190111639294</v>
       </c>
       <c r="D14" t="n">
         <v>311.3291610136048</v>
@@ -1616,13 +1616,13 @@
         <v>338.5764894651836</v>
       </c>
       <c r="F14" t="n">
-        <v>363.5221651346333</v>
+        <v>189.3813718396345</v>
       </c>
       <c r="G14" t="n">
         <v>367.6139367611578</v>
       </c>
       <c r="H14" t="n">
-        <v>251.7259205542585</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>66.8841961317038</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>160.7658560140023</v>
       </c>
       <c r="U14" t="n">
-        <v>9.42831698545336</v>
+        <v>207.6449786890064</v>
       </c>
       <c r="V14" t="n">
         <v>284.3983778630567</v>
@@ -1777,10 +1777,10 @@
         <v>102.067167415853</v>
       </c>
       <c r="G16" t="n">
-        <v>122.6926028084375</v>
+        <v>115.6495384365732</v>
       </c>
       <c r="H16" t="n">
-        <v>101.5849552440131</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>53.62029814512876</v>
@@ -1822,7 +1822,7 @@
         <v>242.8590853343431</v>
       </c>
       <c r="V16" t="n">
-        <v>100.1557431008725</v>
+        <v>208.7837627167498</v>
       </c>
       <c r="W16" t="n">
         <v>243.1691177295128</v>
@@ -1844,22 +1844,22 @@
         <v>339.3799610564024</v>
       </c>
       <c r="C17" t="n">
-        <v>321.9190111639293</v>
+        <v>147.7782178689307</v>
       </c>
       <c r="D17" t="n">
-        <v>311.3291610136048</v>
+        <v>311.3291610136047</v>
       </c>
       <c r="E17" t="n">
         <v>338.5764894651836</v>
       </c>
       <c r="F17" t="n">
-        <v>363.5221651346333</v>
+        <v>363.5221651346332</v>
       </c>
       <c r="G17" t="n">
-        <v>8.631419043602705</v>
+        <v>367.6139367611577</v>
       </c>
       <c r="H17" t="n">
-        <v>251.7259205542586</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>66.88419613170377</v>
       </c>
       <c r="T17" t="n">
         <v>160.7658560140023</v>
       </c>
       <c r="U17" t="n">
-        <v>207.6449786890064</v>
+        <v>207.6449786890063</v>
       </c>
       <c r="V17" t="n">
         <v>284.3983778630567</v>
@@ -1907,7 +1907,7 @@
         <v>305.8870881103348</v>
       </c>
       <c r="X17" t="n">
-        <v>326.3772200713909</v>
+        <v>326.3772200713908</v>
       </c>
       <c r="Y17" t="n">
         <v>342.8840580489754</v>
@@ -2005,22 +2005,22 @@
         <v>123.8929404915496</v>
       </c>
       <c r="D19" t="n">
-        <v>105.2615924111342</v>
+        <v>105.2615924111341</v>
       </c>
       <c r="E19" t="n">
-        <v>103.080082039491</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>102.067167415853</v>
       </c>
       <c r="G19" t="n">
-        <v>14.06458319255993</v>
+        <v>122.6926028084375</v>
       </c>
       <c r="H19" t="n">
-        <v>101.5849552440131</v>
+        <v>101.584955244013</v>
       </c>
       <c r="I19" t="n">
-        <v>53.62029814512876</v>
+        <v>48.07236056874276</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.50790228103332</v>
+        <v>46.5079022810333</v>
       </c>
       <c r="S19" t="n">
         <v>146.77545631515</v>
       </c>
       <c r="T19" t="n">
-        <v>176.283407974083</v>
+        <v>176.2834079740829</v>
       </c>
       <c r="U19" t="n">
-        <v>242.8590853343431</v>
+        <v>242.859085334343</v>
       </c>
       <c r="V19" t="n">
         <v>208.7837627167498</v>
@@ -2065,7 +2065,7 @@
         <v>243.1691177295128</v>
       </c>
       <c r="X19" t="n">
-        <v>182.355774781959</v>
+        <v>182.3557747819589</v>
       </c>
       <c r="Y19" t="n">
         <v>175.2307727450166</v>
@@ -2084,16 +2084,16 @@
         <v>321.9190111639293</v>
       </c>
       <c r="D20" t="n">
-        <v>311.3291610136048</v>
+        <v>311.3291610136047</v>
       </c>
       <c r="E20" t="n">
         <v>338.5764894651836</v>
       </c>
       <c r="F20" t="n">
-        <v>363.5221651346333</v>
+        <v>363.5221651346332</v>
       </c>
       <c r="G20" t="n">
-        <v>367.6139367611578</v>
+        <v>367.6139367611577</v>
       </c>
       <c r="H20" t="n">
         <v>251.7259205542585</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>66.88419613170365</v>
+        <v>66.88419613170377</v>
       </c>
       <c r="T20" t="n">
         <v>160.7658560140023</v>
       </c>
       <c r="U20" t="n">
-        <v>207.6449786890064</v>
+        <v>207.6449786890063</v>
       </c>
       <c r="V20" t="n">
         <v>284.3983778630567</v>
@@ -2144,7 +2144,7 @@
         <v>305.8870881103348</v>
       </c>
       <c r="X20" t="n">
-        <v>326.3772200713909</v>
+        <v>326.3772200713905</v>
       </c>
       <c r="Y20" t="n">
         <v>342.8840580489754</v>
@@ -2239,13 +2239,13 @@
         <v>136.4780995748591</v>
       </c>
       <c r="C22" t="n">
-        <v>61.77282315670578</v>
+        <v>68.88521902080237</v>
       </c>
       <c r="D22" t="n">
-        <v>105.2615924111342</v>
+        <v>105.2615924111341</v>
       </c>
       <c r="E22" t="n">
-        <v>103.080082039491</v>
+        <v>103.0800820394909</v>
       </c>
       <c r="F22" t="n">
         <v>102.067167415853</v>
@@ -2254,10 +2254,10 @@
         <v>122.6926028084375</v>
       </c>
       <c r="H22" t="n">
-        <v>101.5849552440131</v>
+        <v>101.584955244013</v>
       </c>
       <c r="I22" t="n">
-        <v>53.62029814512876</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.5079022810333</v>
       </c>
       <c r="S22" t="n">
         <v>146.77545631515</v>
       </c>
       <c r="T22" t="n">
-        <v>176.283407974083</v>
+        <v>176.2834079740829</v>
       </c>
       <c r="U22" t="n">
-        <v>242.8590853343431</v>
+        <v>242.859085334343</v>
       </c>
       <c r="V22" t="n">
         <v>208.7837627167498</v>
@@ -2302,7 +2302,7 @@
         <v>243.1691177295128</v>
       </c>
       <c r="X22" t="n">
-        <v>182.355774781959</v>
+        <v>182.3557747819589</v>
       </c>
       <c r="Y22" t="n">
         <v>175.2307727450166</v>
@@ -2318,22 +2318,22 @@
         <v>339.3799610564024</v>
       </c>
       <c r="C23" t="n">
-        <v>321.9190111639294</v>
+        <v>321.9190111639293</v>
       </c>
       <c r="D23" t="n">
-        <v>311.3291610136048</v>
+        <v>311.3291610136047</v>
       </c>
       <c r="E23" t="n">
         <v>338.5764894651836</v>
       </c>
       <c r="F23" t="n">
-        <v>363.5221651346333</v>
+        <v>363.5221651346332</v>
       </c>
       <c r="G23" t="n">
-        <v>367.6139367611578</v>
+        <v>367.6139367611577</v>
       </c>
       <c r="H23" t="n">
-        <v>251.7259205542586</v>
+        <v>251.7259205542585</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>66.88419613170383</v>
+        <v>66.88419613170377</v>
       </c>
       <c r="T23" t="n">
-        <v>160.7658560140024</v>
+        <v>160.7658560140023</v>
       </c>
       <c r="U23" t="n">
-        <v>207.6449786890064</v>
+        <v>207.6449786890063</v>
       </c>
       <c r="V23" t="n">
         <v>284.3983778630567</v>
@@ -2381,7 +2381,7 @@
         <v>305.8870881103348</v>
       </c>
       <c r="X23" t="n">
-        <v>326.3772200713909</v>
+        <v>326.3772200713908</v>
       </c>
       <c r="Y23" t="n">
         <v>342.8840580489754</v>
@@ -2476,25 +2476,25 @@
         <v>136.4780995748591</v>
       </c>
       <c r="C25" t="n">
-        <v>118.3450029151622</v>
+        <v>123.8929404915496</v>
       </c>
       <c r="D25" t="n">
-        <v>105.2615924111342</v>
+        <v>105.2615924111341</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>103.0800820394909</v>
       </c>
       <c r="F25" t="n">
-        <v>102.0671674158531</v>
+        <v>102.067167415853</v>
       </c>
       <c r="G25" t="n">
-        <v>122.6926028084375</v>
+        <v>67.6848813376894</v>
       </c>
       <c r="H25" t="n">
-        <v>101.5849552440131</v>
+        <v>101.584955244013</v>
       </c>
       <c r="I25" t="n">
-        <v>53.62029814512879</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.50790228103335</v>
+        <v>46.5079022810333</v>
       </c>
       <c r="S25" t="n">
         <v>146.77545631515</v>
       </c>
       <c r="T25" t="n">
-        <v>176.283407974083</v>
+        <v>176.2834079740829</v>
       </c>
       <c r="U25" t="n">
-        <v>242.8590853343431</v>
+        <v>242.859085334343</v>
       </c>
       <c r="V25" t="n">
         <v>208.7837627167498</v>
@@ -2539,7 +2539,7 @@
         <v>243.1691177295128</v>
       </c>
       <c r="X25" t="n">
-        <v>182.355774781959</v>
+        <v>182.3557747819589</v>
       </c>
       <c r="Y25" t="n">
         <v>175.2307727450166</v>
@@ -2710,22 +2710,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>43.60797666626524</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>89.86178288811152</v>
       </c>
       <c r="S28" t="n">
         <v>190.1293369222282</v>
@@ -2773,10 +2773,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>26.13178118537861</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2947,13 +2947,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>18.90924340347098</v>
+        <v>68.27138694652722</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2962,13 +2962,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0464834155157</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.97417875220695</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3013,10 +3013,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3196,10 +3196,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0464834155157</v>
+        <v>65.62705718943295</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>89.86178288811152</v>
       </c>
       <c r="S34" t="n">
         <v>190.1293369222282</v>
@@ -3241,7 +3241,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2129659414213</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>123.4717973303364</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3269,19 +3269,19 @@
         <v>321.9190111639293</v>
       </c>
       <c r="D35" t="n">
-        <v>311.3291610136048</v>
+        <v>311.3291610136047</v>
       </c>
       <c r="E35" t="n">
         <v>338.5764894651836</v>
       </c>
       <c r="F35" t="n">
-        <v>363.5221651346333</v>
+        <v>363.5221651346332</v>
       </c>
       <c r="G35" t="n">
-        <v>367.6139367611578</v>
+        <v>367.6139367611577</v>
       </c>
       <c r="H35" t="n">
-        <v>251.7259205542586</v>
+        <v>251.7259205542585</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>66.8841961317038</v>
+        <v>66.88419613170379</v>
       </c>
       <c r="T35" t="n">
         <v>160.7658560140023</v>
       </c>
       <c r="U35" t="n">
-        <v>207.6449786890064</v>
+        <v>207.6449786890063</v>
       </c>
       <c r="V35" t="n">
         <v>284.3983778630567</v>
@@ -3329,7 +3329,7 @@
         <v>305.8870881103348</v>
       </c>
       <c r="X35" t="n">
-        <v>326.3772200713909</v>
+        <v>326.3772200713908</v>
       </c>
       <c r="Y35" t="n">
         <v>342.8840580489754</v>
@@ -3427,22 +3427,22 @@
         <v>123.8929404915496</v>
       </c>
       <c r="D37" t="n">
-        <v>105.2615924111342</v>
+        <v>105.2615924111341</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>103.080082039491</v>
       </c>
       <c r="F37" t="n">
         <v>102.067167415853</v>
       </c>
       <c r="G37" t="n">
-        <v>122.6926028084375</v>
+        <v>14.0645831925605</v>
       </c>
       <c r="H37" t="n">
-        <v>101.5849552440131</v>
+        <v>101.584955244013</v>
       </c>
       <c r="I37" t="n">
-        <v>53.62029814512876</v>
+        <v>53.62029814512874</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.50790228103332</v>
+        <v>46.50790228103331</v>
       </c>
       <c r="S37" t="n">
-        <v>141.2275187387642</v>
+        <v>146.77545631515</v>
       </c>
       <c r="T37" t="n">
-        <v>176.283407974083</v>
+        <v>176.2834079740829</v>
       </c>
       <c r="U37" t="n">
-        <v>242.8590853343431</v>
+        <v>242.859085334343</v>
       </c>
       <c r="V37" t="n">
         <v>208.7837627167498</v>
@@ -3487,7 +3487,7 @@
         <v>243.1691177295128</v>
       </c>
       <c r="X37" t="n">
-        <v>182.355774781959</v>
+        <v>182.3557747819589</v>
       </c>
       <c r="Y37" t="n">
         <v>175.2307727450166</v>
@@ -3503,7 +3503,7 @@
         <v>339.3799610564024</v>
       </c>
       <c r="C38" t="n">
-        <v>321.9190111639293</v>
+        <v>321.9190111639294</v>
       </c>
       <c r="D38" t="n">
         <v>311.3291610136048</v>
@@ -3518,7 +3518,7 @@
         <v>367.6139367611578</v>
       </c>
       <c r="H38" t="n">
-        <v>251.7259205542585</v>
+        <v>251.7259205542586</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.8841961317038</v>
+        <v>66.88419613170383</v>
       </c>
       <c r="T38" t="n">
-        <v>160.7658560140023</v>
+        <v>160.7658560140024</v>
       </c>
       <c r="U38" t="n">
         <v>207.6449786890064</v>
@@ -3661,25 +3661,25 @@
         <v>136.4780995748591</v>
       </c>
       <c r="C40" t="n">
-        <v>15.26492087567159</v>
+        <v>123.8929404915497</v>
       </c>
       <c r="D40" t="n">
         <v>105.2615924111342</v>
       </c>
       <c r="E40" t="n">
-        <v>103.080082039491</v>
+        <v>96.03701766762566</v>
       </c>
       <c r="F40" t="n">
-        <v>102.067167415853</v>
+        <v>102.0671674158531</v>
       </c>
       <c r="G40" t="n">
         <v>122.6926028084375</v>
       </c>
       <c r="H40" t="n">
-        <v>101.5849552440131</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>53.62029814512876</v>
+        <v>53.62029814512879</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.50790228103332</v>
+        <v>46.50790228103335</v>
       </c>
       <c r="S40" t="n">
         <v>146.77545631515</v>
@@ -3743,16 +3743,16 @@
         <v>321.9190111639293</v>
       </c>
       <c r="D41" t="n">
-        <v>311.3291610136048</v>
+        <v>311.3291610136047</v>
       </c>
       <c r="E41" t="n">
         <v>338.5764894651836</v>
       </c>
       <c r="F41" t="n">
-        <v>363.5221651346333</v>
+        <v>363.5221651346332</v>
       </c>
       <c r="G41" t="n">
-        <v>367.6139367611578</v>
+        <v>367.6139367611577</v>
       </c>
       <c r="H41" t="n">
         <v>251.7259205542585</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.88419613170447</v>
+        <v>66.88419613170377</v>
       </c>
       <c r="T41" t="n">
         <v>160.7658560140023</v>
       </c>
       <c r="U41" t="n">
-        <v>207.6449786890064</v>
+        <v>207.6449786890063</v>
       </c>
       <c r="V41" t="n">
         <v>284.3983778630567</v>
@@ -3803,7 +3803,7 @@
         <v>305.8870881103348</v>
       </c>
       <c r="X41" t="n">
-        <v>326.3772200713909</v>
+        <v>326.3772200713908</v>
       </c>
       <c r="Y41" t="n">
         <v>342.8840580489754</v>
@@ -3901,22 +3901,22 @@
         <v>123.8929404915496</v>
       </c>
       <c r="D43" t="n">
-        <v>96.76177322141983</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>103.080082039491</v>
+        <v>103.0800820394909</v>
       </c>
       <c r="F43" t="n">
-        <v>102.067167415853</v>
+        <v>98.70074021111111</v>
       </c>
       <c r="G43" t="n">
         <v>122.6926028084375</v>
       </c>
       <c r="H43" t="n">
-        <v>101.5849552440131</v>
+        <v>101.584955244013</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>53.62029814512873</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>46.5079022810333</v>
       </c>
       <c r="S43" t="n">
         <v>146.77545631515</v>
       </c>
       <c r="T43" t="n">
-        <v>176.283407974083</v>
+        <v>176.2834079740829</v>
       </c>
       <c r="U43" t="n">
-        <v>242.8590853343431</v>
+        <v>242.859085334343</v>
       </c>
       <c r="V43" t="n">
         <v>208.7837627167498</v>
@@ -3961,7 +3961,7 @@
         <v>243.1691177295128</v>
       </c>
       <c r="X43" t="n">
-        <v>182.355774781959</v>
+        <v>182.3557747819589</v>
       </c>
       <c r="Y43" t="n">
         <v>175.2307727450166</v>
@@ -3980,19 +3980,19 @@
         <v>321.9190111639293</v>
       </c>
       <c r="D44" t="n">
-        <v>311.3291610136048</v>
+        <v>311.3291610136047</v>
       </c>
       <c r="E44" t="n">
-        <v>338.5764894651836</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>363.5221651346333</v>
+        <v>363.5221651346332</v>
       </c>
       <c r="G44" t="n">
-        <v>367.6139367611578</v>
+        <v>367.6139367611577</v>
       </c>
       <c r="H44" t="n">
-        <v>251.7259205542585</v>
+        <v>164.4356961701846</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>66.88419613170377</v>
       </c>
       <c r="T44" t="n">
-        <v>9.42831698545414</v>
+        <v>160.7658560140023</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>207.6449786890063</v>
       </c>
       <c r="V44" t="n">
         <v>284.3983778630567</v>
@@ -4040,7 +4040,7 @@
         <v>305.8870881103348</v>
       </c>
       <c r="X44" t="n">
-        <v>326.3772200713909</v>
+        <v>326.3772200713908</v>
       </c>
       <c r="Y44" t="n">
         <v>342.8840580489754</v>
@@ -4138,19 +4138,19 @@
         <v>123.8929404915496</v>
       </c>
       <c r="D46" t="n">
-        <v>105.2615924111342</v>
+        <v>105.2615924111341</v>
       </c>
       <c r="E46" t="n">
-        <v>103.080082039491</v>
+        <v>103.0800820394909</v>
       </c>
       <c r="F46" t="n">
-        <v>47.05944594510446</v>
+        <v>102.067167415853</v>
       </c>
       <c r="G46" t="n">
         <v>122.6926028084375</v>
       </c>
       <c r="H46" t="n">
-        <v>101.5849552440131</v>
+        <v>101.584955244013</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.50790228103332</v>
+        <v>46.5079022810333</v>
       </c>
       <c r="S46" t="n">
         <v>146.77545631515</v>
       </c>
       <c r="T46" t="n">
-        <v>176.283407974083</v>
+        <v>176.2834079740829</v>
       </c>
       <c r="U46" t="n">
-        <v>242.8590853343431</v>
+        <v>242.859085334343</v>
       </c>
       <c r="V46" t="n">
         <v>208.7837627167498</v>
@@ -4198,7 +4198,7 @@
         <v>243.1691177295128</v>
       </c>
       <c r="X46" t="n">
-        <v>182.355774781959</v>
+        <v>127.3480533112108</v>
       </c>
       <c r="Y46" t="n">
         <v>175.2307727450166</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>51.11933469231312</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="C2" t="n">
-        <v>51.11933469231312</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="D2" t="n">
-        <v>51.11933469231312</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="E2" t="n">
-        <v>44.20882949099123</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="F2" t="n">
-        <v>28.75151886964269</v>
+        <v>38.80813868998818</v>
       </c>
       <c r="G2" t="n">
-        <v>13.29420824829416</v>
+        <v>23.35082806863965</v>
       </c>
       <c r="H2" t="n">
-        <v>13.29420824829416</v>
+        <v>7.89351744729111</v>
       </c>
       <c r="I2" t="n">
-        <v>13.29420824829416</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="J2" t="n">
         <v>1.224219001210804</v>
       </c>
       <c r="K2" t="n">
+        <v>1.224219001210804</v>
+      </c>
+      <c r="L2" t="n">
         <v>16.37392914119451</v>
       </c>
-      <c r="L2" t="n">
-        <v>30.9115297805728</v>
-      </c>
       <c r="M2" t="n">
-        <v>30.9115297805728</v>
+        <v>31.52363928117821</v>
       </c>
       <c r="N2" t="n">
+        <v>31.52363928117821</v>
+      </c>
+      <c r="O2" t="n">
         <v>46.0612399205565</v>
-      </c>
-      <c r="O2" t="n">
-        <v>61.2109500605402</v>
       </c>
       <c r="P2" t="n">
         <v>61.2109500605402</v>
       </c>
       <c r="Q2" t="n">
-        <v>51.11933469231312</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="R2" t="n">
-        <v>51.11933469231312</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="S2" t="n">
-        <v>51.11933469231312</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="T2" t="n">
-        <v>51.11933469231312</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="U2" t="n">
-        <v>51.11933469231312</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="V2" t="n">
-        <v>51.11933469231312</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="W2" t="n">
-        <v>51.11933469231312</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="X2" t="n">
-        <v>51.11933469231312</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="Y2" t="n">
-        <v>51.11933469231312</v>
+        <v>45.75363943919166</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>61.2109500605402</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="C3" t="n">
-        <v>61.2109500605402</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="D3" t="n">
-        <v>61.2109500605402</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="E3" t="n">
-        <v>61.2109500605402</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="F3" t="n">
-        <v>48.35028351804213</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="G3" t="n">
-        <v>32.89297289669359</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="H3" t="n">
-        <v>17.43566227534506</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="I3" t="n">
-        <v>1.978351653996518</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="J3" t="n">
         <v>1.224219001210804</v>
       </c>
       <c r="K3" t="n">
+        <v>1.224219001210804</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.224219001210804</v>
+      </c>
+      <c r="M3" t="n">
         <v>16.37392914119451</v>
       </c>
-      <c r="L3" t="n">
-        <v>31.52363928117821</v>
-      </c>
-      <c r="M3" t="n">
-        <v>46.6733494211619</v>
-      </c>
       <c r="N3" t="n">
-        <v>61.2109500605402</v>
+        <v>16.37392914119451</v>
       </c>
       <c r="O3" t="n">
-        <v>61.2109500605402</v>
+        <v>30.9115297805728</v>
       </c>
       <c r="P3" t="n">
-        <v>61.2109500605402</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="Q3" t="n">
         <v>61.2109500605402</v>
@@ -4440,19 +4440,19 @@
         <v>61.2109500605402</v>
       </c>
       <c r="U3" t="n">
-        <v>61.2109500605402</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="V3" t="n">
-        <v>61.2109500605402</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="W3" t="n">
-        <v>61.2109500605402</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="X3" t="n">
-        <v>61.2109500605402</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="Y3" t="n">
-        <v>61.2109500605402</v>
+        <v>1.224219001210804</v>
       </c>
     </row>
     <row r="4">
@@ -4498,31 +4498,31 @@
         <v>31.52363928117821</v>
       </c>
       <c r="N4" t="n">
-        <v>46.6733494211619</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="O4" t="n">
         <v>61.2109500605402</v>
       </c>
       <c r="P4" t="n">
-        <v>58.46202002507908</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="Q4" t="n">
-        <v>43.00470940373054</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="R4" t="n">
-        <v>27.54739878238201</v>
+        <v>47.59615086525642</v>
       </c>
       <c r="S4" t="n">
-        <v>12.09008816103347</v>
+        <v>32.13884024390788</v>
       </c>
       <c r="T4" t="n">
-        <v>12.09008816103347</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="U4" t="n">
-        <v>1.224219001210804</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="V4" t="n">
-        <v>1.224219001210804</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="W4" t="n">
         <v>1.224219001210804</v>
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>32.13884024390788</v>
+        <v>39.08434099311135</v>
       </c>
       <c r="C5" t="n">
-        <v>32.13884024390788</v>
+        <v>39.08434099311135</v>
       </c>
       <c r="D5" t="n">
-        <v>32.13884024390788</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="E5" t="n">
-        <v>32.13884024390788</v>
+        <v>23.62703037176281</v>
       </c>
       <c r="F5" t="n">
         <v>16.68152962255934</v>
@@ -4568,49 +4568,49 @@
         <v>1.224219001210804</v>
       </c>
       <c r="K5" t="n">
-        <v>1.224219001210804</v>
+        <v>16.37392914119451</v>
       </c>
       <c r="L5" t="n">
-        <v>1.224219001210804</v>
+        <v>31.52363928117821</v>
       </c>
       <c r="M5" t="n">
-        <v>15.7618196405891</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="N5" t="n">
-        <v>30.9115297805728</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="O5" t="n">
-        <v>46.0612399205565</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="P5" t="n">
         <v>61.2109500605402</v>
       </c>
       <c r="Q5" t="n">
-        <v>51.11933469231312</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="R5" t="n">
-        <v>35.66202407096459</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="S5" t="n">
-        <v>32.13884024390788</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="T5" t="n">
-        <v>32.13884024390788</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="U5" t="n">
-        <v>32.13884024390788</v>
+        <v>39.08434099311135</v>
       </c>
       <c r="V5" t="n">
-        <v>32.13884024390788</v>
+        <v>39.08434099311135</v>
       </c>
       <c r="W5" t="n">
-        <v>32.13884024390788</v>
+        <v>39.08434099311135</v>
       </c>
       <c r="X5" t="n">
-        <v>32.13884024390788</v>
+        <v>39.08434099311135</v>
       </c>
       <c r="Y5" t="n">
-        <v>32.13884024390788</v>
+        <v>39.08434099311135</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>17.43566227534506</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="C6" t="n">
-        <v>17.43566227534506</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="D6" t="n">
-        <v>17.43566227534506</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="E6" t="n">
-        <v>17.43566227534506</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="F6" t="n">
-        <v>17.43566227534506</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="G6" t="n">
-        <v>17.43566227534506</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="H6" t="n">
-        <v>17.43566227534506</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="I6" t="n">
-        <v>1.978351653996518</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="J6" t="n">
         <v>1.224219001210804</v>
       </c>
       <c r="K6" t="n">
-        <v>1.224219001210804</v>
+        <v>15.7618196405891</v>
       </c>
       <c r="L6" t="n">
-        <v>1.224219001210804</v>
+        <v>30.9115297805728</v>
       </c>
       <c r="M6" t="n">
-        <v>1.224219001210804</v>
+        <v>30.9115297805728</v>
       </c>
       <c r="N6" t="n">
-        <v>15.7618196405891</v>
+        <v>30.9115297805728</v>
       </c>
       <c r="O6" t="n">
-        <v>30.9115297805728</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="P6" t="n">
-        <v>46.0612399205565</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="Q6" t="n">
         <v>61.2109500605402</v>
@@ -4674,22 +4674,22 @@
         <v>30.29632881784312</v>
       </c>
       <c r="T6" t="n">
-        <v>30.29632881784312</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="U6" t="n">
-        <v>30.29632881784312</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="V6" t="n">
-        <v>30.29632881784312</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="W6" t="n">
-        <v>30.29632881784312</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="X6" t="n">
-        <v>30.29632881784312</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="Y6" t="n">
-        <v>17.43566227534506</v>
+        <v>1.224219001210804</v>
       </c>
     </row>
     <row r="7">
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>61.2109500605402</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="C7" t="n">
-        <v>61.2109500605402</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="D7" t="n">
-        <v>61.2109500605402</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="E7" t="n">
-        <v>47.59615086525642</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="F7" t="n">
-        <v>32.13884024390788</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="G7" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="H7" t="n">
         <v>1.224219001210804</v>
@@ -4729,13 +4729,13 @@
         <v>1.224219001210804</v>
       </c>
       <c r="L7" t="n">
-        <v>16.37392914119451</v>
+        <v>15.7618196405891</v>
       </c>
       <c r="M7" t="n">
-        <v>31.52363928117821</v>
+        <v>30.9115297805728</v>
       </c>
       <c r="N7" t="n">
-        <v>46.6733494211619</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="O7" t="n">
         <v>61.2109500605402</v>
@@ -4744,31 +4744,31 @@
         <v>61.2109500605402</v>
       </c>
       <c r="Q7" t="n">
-        <v>61.2109500605402</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="R7" t="n">
-        <v>61.2109500605402</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="S7" t="n">
-        <v>61.2109500605402</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="T7" t="n">
-        <v>61.2109500605402</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="U7" t="n">
-        <v>61.2109500605402</v>
+        <v>14.83901819649459</v>
       </c>
       <c r="V7" t="n">
-        <v>61.2109500605402</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="W7" t="n">
-        <v>61.2109500605402</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="X7" t="n">
-        <v>61.2109500605402</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="Y7" t="n">
-        <v>61.2109500605402</v>
+        <v>1.224219001210804</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4778,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>35.69701961884617</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="C8" t="n">
-        <v>35.69701961884617</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="D8" t="n">
-        <v>35.69701961884617</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="E8" t="n">
-        <v>35.69701961884617</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="F8" t="n">
-        <v>28.75151886964269</v>
+        <v>23.35082806863965</v>
       </c>
       <c r="G8" t="n">
-        <v>13.29420824829416</v>
+        <v>7.893517447291114</v>
       </c>
       <c r="H8" t="n">
-        <v>13.29420824829416</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="I8" t="n">
-        <v>13.29420824829416</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="J8" t="n">
         <v>1.224219001210804</v>
       </c>
       <c r="K8" t="n">
-        <v>16.37392914119451</v>
+        <v>15.7618196405891</v>
       </c>
       <c r="L8" t="n">
-        <v>16.37392914119451</v>
+        <v>15.7618196405891</v>
       </c>
       <c r="M8" t="n">
-        <v>16.37392914119451</v>
+        <v>30.9115297805728</v>
       </c>
       <c r="N8" t="n">
         <v>30.9115297805728</v>
@@ -4823,31 +4823,31 @@
         <v>61.2109500605402</v>
       </c>
       <c r="Q8" t="n">
-        <v>51.11933469231312</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="R8" t="n">
-        <v>35.69701961884617</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="S8" t="n">
-        <v>35.69701961884617</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="T8" t="n">
-        <v>35.69701961884617</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="U8" t="n">
-        <v>35.69701961884617</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="V8" t="n">
-        <v>35.69701961884617</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="W8" t="n">
-        <v>35.69701961884617</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="X8" t="n">
-        <v>35.69701961884617</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="Y8" t="n">
-        <v>35.69701961884617</v>
+        <v>30.29632881784312</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>61.2109500605402</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="C9" t="n">
-        <v>61.2109500605402</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="D9" t="n">
-        <v>48.35028351804213</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="E9" t="n">
-        <v>32.89297289669359</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="F9" t="n">
-        <v>17.43566227534506</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="G9" t="n">
-        <v>17.43566227534506</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="H9" t="n">
-        <v>17.43566227534506</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="I9" t="n">
-        <v>1.978351653996518</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="J9" t="n">
         <v>1.224219001210804</v>
@@ -4887,46 +4887,46 @@
         <v>1.224219001210804</v>
       </c>
       <c r="L9" t="n">
-        <v>1.224219001210804</v>
+        <v>16.37392914119451</v>
       </c>
       <c r="M9" t="n">
-        <v>1.224219001210804</v>
+        <v>31.52363928117821</v>
       </c>
       <c r="N9" t="n">
-        <v>15.7618196405891</v>
+        <v>46.6733494211619</v>
       </c>
       <c r="O9" t="n">
-        <v>30.9115297805728</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="P9" t="n">
-        <v>46.0612399205565</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="Q9" t="n">
         <v>61.2109500605402</v>
       </c>
       <c r="R9" t="n">
-        <v>61.2109500605402</v>
+        <v>47.59615086525642</v>
       </c>
       <c r="S9" t="n">
-        <v>61.2109500605402</v>
+        <v>47.59615086525642</v>
       </c>
       <c r="T9" t="n">
-        <v>61.2109500605402</v>
+        <v>47.59615086525642</v>
       </c>
       <c r="U9" t="n">
-        <v>61.2109500605402</v>
+        <v>32.13884024390788</v>
       </c>
       <c r="V9" t="n">
-        <v>61.2109500605402</v>
+        <v>32.13884024390788</v>
       </c>
       <c r="W9" t="n">
-        <v>61.2109500605402</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="X9" t="n">
-        <v>61.2109500605402</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="Y9" t="n">
-        <v>61.2109500605402</v>
+        <v>16.68152962255934</v>
       </c>
     </row>
     <row r="10">
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>45.75363943919166</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="C10" t="n">
-        <v>45.75363943919166</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="D10" t="n">
-        <v>45.75363943919166</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="E10" t="n">
-        <v>45.75363943919166</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="F10" t="n">
-        <v>32.13884024390788</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="G10" t="n">
-        <v>16.68152962255934</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="H10" t="n">
         <v>1.224219001210804</v>
@@ -4969,10 +4969,10 @@
         <v>16.37392914119451</v>
       </c>
       <c r="M10" t="n">
-        <v>31.52363928117821</v>
+        <v>30.9115297805728</v>
       </c>
       <c r="N10" t="n">
-        <v>46.6733494211619</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="O10" t="n">
         <v>61.2109500605402</v>
@@ -4981,31 +4981,31 @@
         <v>61.2109500605402</v>
       </c>
       <c r="Q10" t="n">
-        <v>61.2109500605402</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="R10" t="n">
-        <v>61.2109500605402</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="S10" t="n">
-        <v>61.2109500605402</v>
+        <v>30.29632881784312</v>
       </c>
       <c r="T10" t="n">
-        <v>45.75363943919166</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="U10" t="n">
-        <v>45.75363943919166</v>
+        <v>16.68152962255934</v>
       </c>
       <c r="V10" t="n">
-        <v>45.75363943919166</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="W10" t="n">
-        <v>45.75363943919166</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="X10" t="n">
-        <v>45.75363943919166</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="Y10" t="n">
-        <v>45.75363943919166</v>
+        <v>1.224219001210804</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2047.88062722684</v>
+        <v>1960.52027087042</v>
       </c>
       <c r="C11" t="n">
-        <v>1722.709908879436</v>
+        <v>1722.709908879435</v>
       </c>
       <c r="D11" t="n">
-        <v>1408.236008865694</v>
+        <v>1408.236008865693</v>
       </c>
       <c r="E11" t="n">
-        <v>1066.239554860458</v>
+        <v>1066.239554860457</v>
       </c>
       <c r="F11" t="n">
-        <v>699.0454486638587</v>
+        <v>699.0454486638582</v>
       </c>
       <c r="G11" t="n">
         <v>327.7182398142043</v>
       </c>
       <c r="H11" t="n">
-        <v>73.44963319374111</v>
+        <v>73.44963319374114</v>
       </c>
       <c r="I11" t="n">
-        <v>73.44963319374111</v>
+        <v>73.44963319374114</v>
       </c>
       <c r="J11" t="n">
-        <v>425.8615562623738</v>
+        <v>258.4559072420208</v>
       </c>
       <c r="K11" t="n">
-        <v>753.8765213775987</v>
+        <v>907.3748308026987</v>
       </c>
       <c r="L11" t="n">
-        <v>1197.709852528274</v>
+        <v>1351.208161953374</v>
       </c>
       <c r="M11" t="n">
-        <v>1723.229388405029</v>
+        <v>1876.727697830129</v>
       </c>
       <c r="N11" t="n">
-        <v>2261.866188164863</v>
+        <v>2415.364497589962</v>
       </c>
       <c r="O11" t="n">
-        <v>2757.150382989231</v>
+        <v>2910.648692414331</v>
       </c>
       <c r="P11" t="n">
-        <v>3145.362983608046</v>
+        <v>3307.91294409031</v>
       </c>
       <c r="Q11" t="n">
-        <v>3551.271693047919</v>
+        <v>3551.271693047921</v>
       </c>
       <c r="R11" t="n">
-        <v>3672.481659687055</v>
+        <v>3672.481659687057</v>
       </c>
       <c r="S11" t="n">
-        <v>3672.481659687055</v>
+        <v>3604.921865614629</v>
       </c>
       <c r="T11" t="n">
-        <v>3529.892468421551</v>
+        <v>3442.532112065132</v>
       </c>
       <c r="U11" t="n">
-        <v>3320.150065705383</v>
+        <v>3232.789709348963</v>
       </c>
       <c r="V11" t="n">
-        <v>3032.878976954821</v>
+        <v>2945.518620598401</v>
       </c>
       <c r="W11" t="n">
-        <v>2723.902120277715</v>
+        <v>2636.541763921295</v>
       </c>
       <c r="X11" t="n">
-        <v>2394.228160609643</v>
+        <v>2306.867804253224</v>
       </c>
       <c r="Y11" t="n">
-        <v>2047.88062722684</v>
+        <v>1960.52027087042</v>
       </c>
     </row>
     <row r="12">
@@ -5106,22 +5106,22 @@
         <v>456.7516005148256</v>
       </c>
       <c r="F12" t="n">
-        <v>310.2170425417105</v>
+        <v>310.2170425417106</v>
       </c>
       <c r="G12" t="n">
-        <v>173.8290320293325</v>
+        <v>173.8290320293326</v>
       </c>
       <c r="H12" t="n">
-        <v>83.08655617736942</v>
+        <v>83.08655617736945</v>
       </c>
       <c r="I12" t="n">
-        <v>73.44963319374111</v>
+        <v>73.44963319374114</v>
       </c>
       <c r="J12" t="n">
         <v>164.8202556400442</v>
       </c>
       <c r="K12" t="n">
-        <v>399.1420274243225</v>
+        <v>399.1420274243226</v>
       </c>
       <c r="L12" t="n">
         <v>760.5391078461389</v>
@@ -5139,7 +5139,7 @@
         <v>2379.792414502857</v>
       </c>
       <c r="Q12" t="n">
-        <v>2534.317466157269</v>
+        <v>2563.306572849885</v>
       </c>
       <c r="R12" t="n">
         <v>2563.306572849885</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>683.117935153064</v>
+        <v>683.1179351530644</v>
       </c>
       <c r="C13" t="n">
-        <v>557.9735508181653</v>
+        <v>557.9735508181658</v>
       </c>
       <c r="D13" t="n">
-        <v>451.6487099988379</v>
+        <v>451.6487099988384</v>
       </c>
       <c r="E13" t="n">
-        <v>347.5274150094531</v>
+        <v>347.5274150094535</v>
       </c>
       <c r="F13" t="n">
-        <v>244.429266104551</v>
+        <v>244.4292661045515</v>
       </c>
       <c r="G13" t="n">
         <v>230.2226164150965</v>
@@ -5194,10 +5194,10 @@
         <v>127.611550512053</v>
       </c>
       <c r="I13" t="n">
-        <v>73.44963319374111</v>
+        <v>73.44963319374114</v>
       </c>
       <c r="J13" t="n">
-        <v>160.0454912136561</v>
+        <v>160.0454912136562</v>
       </c>
       <c r="K13" t="n">
         <v>404.5749594643503</v>
@@ -5206,16 +5206,16 @@
         <v>761.012006131088</v>
       </c>
       <c r="M13" t="n">
-        <v>1144.880878021823</v>
+        <v>1144.880878021822</v>
       </c>
       <c r="N13" t="n">
         <v>1526.077372346311</v>
       </c>
       <c r="O13" t="n">
-        <v>1865.434197070127</v>
+        <v>1865.434197070126</v>
       </c>
       <c r="P13" t="n">
-        <v>2138.486478767609</v>
+        <v>2138.486478767608</v>
       </c>
       <c r="Q13" t="n">
         <v>2257.303166923475</v>
@@ -5236,13 +5236,13 @@
         <v>1427.798505689779</v>
       </c>
       <c r="W13" t="n">
-        <v>1182.173134245826</v>
+        <v>1182.173134245827</v>
       </c>
       <c r="X13" t="n">
-        <v>997.9753819408172</v>
+        <v>997.9753819408176</v>
       </c>
       <c r="Y13" t="n">
-        <v>820.9746013902954</v>
+        <v>820.9746013902958</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2047.88062722684</v>
+        <v>1617.712229399307</v>
       </c>
       <c r="C14" t="n">
-        <v>1722.709908879436</v>
+        <v>1292.541511051904</v>
       </c>
       <c r="D14" t="n">
-        <v>1408.236008865694</v>
+        <v>978.0676110381614</v>
       </c>
       <c r="E14" t="n">
-        <v>1066.239554860458</v>
+        <v>636.0711570329254</v>
       </c>
       <c r="F14" t="n">
-        <v>699.0454486638588</v>
+        <v>444.7768420433955</v>
       </c>
       <c r="G14" t="n">
-        <v>327.7182398142043</v>
+        <v>73.44963319374114</v>
       </c>
       <c r="H14" t="n">
-        <v>73.44963319374111</v>
+        <v>73.44963319374114</v>
       </c>
       <c r="I14" t="n">
-        <v>73.44963319374111</v>
+        <v>73.44963319374114</v>
       </c>
       <c r="J14" t="n">
         <v>258.4559072420208</v>
@@ -5282,46 +5282,46 @@
         <v>586.4708723572458</v>
       </c>
       <c r="L14" t="n">
-        <v>1030.304203507921</v>
+        <v>1106.738347595023</v>
       </c>
       <c r="M14" t="n">
-        <v>1939.243414280467</v>
+        <v>1632.257883471778</v>
       </c>
       <c r="N14" t="n">
-        <v>2489.475404321377</v>
+        <v>2170.894683231611</v>
       </c>
       <c r="O14" t="n">
-        <v>2984.759599145746</v>
+        <v>2666.17887805598</v>
       </c>
       <c r="P14" t="n">
-        <v>3372.972199764561</v>
+        <v>3372.972199764562</v>
       </c>
       <c r="Q14" t="n">
-        <v>3616.330948722172</v>
+        <v>3616.330948722174</v>
       </c>
       <c r="R14" t="n">
-        <v>3672.481659687055</v>
+        <v>3672.481659687057</v>
       </c>
       <c r="S14" t="n">
-        <v>3672.481659687055</v>
+        <v>3604.921865614629</v>
       </c>
       <c r="T14" t="n">
-        <v>3672.481659687055</v>
+        <v>3442.532112065132</v>
       </c>
       <c r="U14" t="n">
-        <v>3662.958107176497</v>
+        <v>3232.789709348964</v>
       </c>
       <c r="V14" t="n">
-        <v>3375.687018425935</v>
+        <v>2945.518620598401</v>
       </c>
       <c r="W14" t="n">
-        <v>3066.710161748829</v>
+        <v>2636.541763921296</v>
       </c>
       <c r="X14" t="n">
-        <v>2737.036202080757</v>
+        <v>2306.867804253224</v>
       </c>
       <c r="Y14" t="n">
-        <v>2390.688668697953</v>
+        <v>1960.520270870421</v>
       </c>
     </row>
     <row r="15">
@@ -5343,22 +5343,22 @@
         <v>456.7516005148256</v>
       </c>
       <c r="F15" t="n">
-        <v>310.2170425417105</v>
+        <v>310.2170425417106</v>
       </c>
       <c r="G15" t="n">
-        <v>173.8290320293325</v>
+        <v>173.8290320293326</v>
       </c>
       <c r="H15" t="n">
-        <v>83.08655617736942</v>
+        <v>83.08655617736945</v>
       </c>
       <c r="I15" t="n">
-        <v>73.44963319374111</v>
+        <v>73.44963319374114</v>
       </c>
       <c r="J15" t="n">
         <v>164.8202556400442</v>
       </c>
       <c r="K15" t="n">
-        <v>399.1420274243225</v>
+        <v>399.1420274243226</v>
       </c>
       <c r="L15" t="n">
         <v>760.5391078461389</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>792.8432074923342</v>
+        <v>683.117935153064</v>
       </c>
       <c r="C16" t="n">
-        <v>667.6988231574355</v>
+        <v>557.9735508181653</v>
       </c>
       <c r="D16" t="n">
-        <v>561.3739823381081</v>
+        <v>451.6487099988379</v>
       </c>
       <c r="E16" t="n">
-        <v>457.2526873487233</v>
+        <v>347.527415009453</v>
       </c>
       <c r="F16" t="n">
-        <v>354.1545384438213</v>
+        <v>244.4292661045509</v>
       </c>
       <c r="G16" t="n">
-        <v>230.2226164150965</v>
+        <v>127.611550512053</v>
       </c>
       <c r="H16" t="n">
         <v>127.611550512053</v>
       </c>
       <c r="I16" t="n">
-        <v>73.44963319374111</v>
+        <v>73.44963319374114</v>
       </c>
       <c r="J16" t="n">
         <v>160.0454912136561</v>
       </c>
       <c r="K16" t="n">
-        <v>404.5749594643503</v>
+        <v>404.5749594643501</v>
       </c>
       <c r="L16" t="n">
-        <v>761.0120061310881</v>
+        <v>761.0120061310878</v>
       </c>
       <c r="M16" t="n">
         <v>1144.880878021822</v>
@@ -5461,25 +5461,25 @@
         <v>2210.325487851724</v>
       </c>
       <c r="S16" t="n">
-        <v>2062.067451169755</v>
+        <v>2062.067451169754</v>
       </c>
       <c r="T16" t="n">
         <v>1884.003402711085</v>
       </c>
       <c r="U16" t="n">
-        <v>1638.691195302658</v>
+        <v>1638.691195302657</v>
       </c>
       <c r="V16" t="n">
-        <v>1537.523778029049</v>
+        <v>1427.798505689779</v>
       </c>
       <c r="W16" t="n">
-        <v>1291.898406585097</v>
+        <v>1182.173134245826</v>
       </c>
       <c r="X16" t="n">
-        <v>1107.700654280088</v>
+        <v>997.9753819408172</v>
       </c>
       <c r="Y16" t="n">
-        <v>930.6998737295655</v>
+        <v>820.9746013902954</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1685.272023471733</v>
+        <v>1617.712229399307</v>
       </c>
       <c r="C17" t="n">
-        <v>1360.10130512433</v>
+        <v>1468.441302258973</v>
       </c>
       <c r="D17" t="n">
-        <v>1045.627405110587</v>
+        <v>1153.96740224523</v>
       </c>
       <c r="E17" t="n">
-        <v>703.6309511053516</v>
+        <v>811.9709482399946</v>
       </c>
       <c r="F17" t="n">
-        <v>336.4368449087524</v>
+        <v>444.7768420433954</v>
       </c>
       <c r="G17" t="n">
-        <v>327.7182398142043</v>
+        <v>73.44963319374114</v>
       </c>
       <c r="H17" t="n">
-        <v>73.44963319374111</v>
+        <v>73.44963319374114</v>
       </c>
       <c r="I17" t="n">
-        <v>73.44963319374111</v>
+        <v>73.44963319374114</v>
       </c>
       <c r="J17" t="n">
-        <v>425.8615562623738</v>
+        <v>258.4559072420208</v>
       </c>
       <c r="K17" t="n">
-        <v>753.8765213775987</v>
+        <v>586.4708723572458</v>
       </c>
       <c r="L17" t="n">
-        <v>1197.709852528274</v>
+        <v>1030.304203507921</v>
       </c>
       <c r="M17" t="n">
-        <v>1723.229388405029</v>
+        <v>1573.846425111428</v>
       </c>
       <c r="N17" t="n">
-        <v>2261.866188164863</v>
+        <v>2112.483224871261</v>
       </c>
       <c r="O17" t="n">
-        <v>2757.150382989231</v>
+        <v>2984.759599145747</v>
       </c>
       <c r="P17" t="n">
-        <v>3145.362983608046</v>
+        <v>3372.972199764562</v>
       </c>
       <c r="Q17" t="n">
-        <v>3551.271693047919</v>
+        <v>3616.330948722174</v>
       </c>
       <c r="R17" t="n">
-        <v>3672.481659687055</v>
+        <v>3672.481659687057</v>
       </c>
       <c r="S17" t="n">
-        <v>3672.481659687055</v>
+        <v>3604.921865614629</v>
       </c>
       <c r="T17" t="n">
-        <v>3510.091906137558</v>
+        <v>3442.532112065132</v>
       </c>
       <c r="U17" t="n">
-        <v>3300.34950342139</v>
+        <v>3232.789709348963</v>
       </c>
       <c r="V17" t="n">
-        <v>3013.078414670827</v>
+        <v>2945.518620598401</v>
       </c>
       <c r="W17" t="n">
-        <v>2704.101557993722</v>
+        <v>2636.541763921295</v>
       </c>
       <c r="X17" t="n">
-        <v>2374.42759832565</v>
+        <v>2306.867804253223</v>
       </c>
       <c r="Y17" t="n">
-        <v>2028.080064942847</v>
+        <v>1960.52027087042</v>
       </c>
     </row>
     <row r="18">
@@ -5580,22 +5580,22 @@
         <v>456.7516005148256</v>
       </c>
       <c r="F18" t="n">
-        <v>310.2170425417105</v>
+        <v>310.2170425417106</v>
       </c>
       <c r="G18" t="n">
-        <v>173.8290320293325</v>
+        <v>173.8290320293326</v>
       </c>
       <c r="H18" t="n">
-        <v>83.08655617736942</v>
+        <v>83.08655617736945</v>
       </c>
       <c r="I18" t="n">
-        <v>73.44963319374111</v>
+        <v>73.44963319374114</v>
       </c>
       <c r="J18" t="n">
         <v>164.8202556400442</v>
       </c>
       <c r="K18" t="n">
-        <v>399.1420274243225</v>
+        <v>399.1420274243226</v>
       </c>
       <c r="L18" t="n">
         <v>760.5391078461389</v>
@@ -5647,34 +5647,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>683.1179351530639</v>
+        <v>683.1179351530644</v>
       </c>
       <c r="C19" t="n">
-        <v>557.9735508181652</v>
+        <v>557.9735508181658</v>
       </c>
       <c r="D19" t="n">
-        <v>451.6487099988378</v>
+        <v>451.6487099988384</v>
       </c>
       <c r="E19" t="n">
-        <v>347.527415009453</v>
+        <v>451.6487099988384</v>
       </c>
       <c r="F19" t="n">
-        <v>244.4292661045509</v>
+        <v>348.5505610939364</v>
       </c>
       <c r="G19" t="n">
-        <v>230.2226164150965</v>
+        <v>224.6186390652117</v>
       </c>
       <c r="H19" t="n">
-        <v>127.611550512053</v>
+        <v>122.0075731621682</v>
       </c>
       <c r="I19" t="n">
-        <v>73.44963319374111</v>
+        <v>73.44963319374114</v>
       </c>
       <c r="J19" t="n">
-        <v>160.045491213656</v>
+        <v>160.0454912136562</v>
       </c>
       <c r="K19" t="n">
-        <v>404.5749594643502</v>
+        <v>404.5749594643503</v>
       </c>
       <c r="L19" t="n">
         <v>761.012006131088</v>
@@ -5695,10 +5695,10 @@
         <v>2257.303166923475</v>
       </c>
       <c r="R19" t="n">
-        <v>2210.325487851724</v>
+        <v>2210.325487851725</v>
       </c>
       <c r="S19" t="n">
-        <v>2062.067451169754</v>
+        <v>2062.067451169755</v>
       </c>
       <c r="T19" t="n">
         <v>1884.003402711085</v>
@@ -5713,10 +5713,10 @@
         <v>1182.173134245827</v>
       </c>
       <c r="X19" t="n">
-        <v>997.975381940817</v>
+        <v>997.9753819408176</v>
       </c>
       <c r="Y19" t="n">
-        <v>820.9746013902952</v>
+        <v>820.9746013902958</v>
       </c>
     </row>
     <row r="20">
@@ -5738,10 +5738,10 @@
         <v>1075.018501754897</v>
       </c>
       <c r="F20" t="n">
-        <v>707.824395558298</v>
+        <v>707.8243955582979</v>
       </c>
       <c r="G20" t="n">
-        <v>336.4971867086438</v>
+        <v>336.4971867086437</v>
       </c>
       <c r="H20" t="n">
         <v>82.22858008818058</v>
@@ -5750,28 +5750,28 @@
         <v>82.22858008818058</v>
       </c>
       <c r="J20" t="n">
-        <v>394.5219792452913</v>
+        <v>267.2348541364602</v>
       </c>
       <c r="K20" t="n">
-        <v>1043.440902805969</v>
+        <v>916.1537776971381</v>
       </c>
       <c r="L20" t="n">
-        <v>1487.274233956644</v>
+        <v>1359.987108847813</v>
       </c>
       <c r="M20" t="n">
-        <v>2012.793769833399</v>
+        <v>1885.506644724569</v>
       </c>
       <c r="N20" t="n">
-        <v>2551.430569593233</v>
+        <v>2424.143444484402</v>
       </c>
       <c r="O20" t="n">
-        <v>3423.706943867719</v>
+        <v>2919.42763930877</v>
       </c>
       <c r="P20" t="n">
-        <v>3811.919544486534</v>
+        <v>3626.220961017353</v>
       </c>
       <c r="Q20" t="n">
-        <v>4055.278293444145</v>
+        <v>3990.219037769893</v>
       </c>
       <c r="R20" t="n">
         <v>4111.429004409028</v>
@@ -5832,7 +5832,7 @@
         <v>173.5992025344837</v>
       </c>
       <c r="K21" t="n">
-        <v>407.920974318762</v>
+        <v>436.9100810113773</v>
       </c>
       <c r="L21" t="n">
         <v>798.3071614331936</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>738.8745611192551</v>
+        <v>691.896882047505</v>
       </c>
       <c r="C22" t="n">
-        <v>676.4777700518755</v>
+        <v>622.3158527335631</v>
       </c>
       <c r="D22" t="n">
-        <v>570.1529292325475</v>
+        <v>515.9910119142357</v>
       </c>
       <c r="E22" t="n">
-        <v>466.0316342431627</v>
+        <v>411.8697169248509</v>
       </c>
       <c r="F22" t="n">
-        <v>362.9334853382607</v>
+        <v>308.7715680199489</v>
       </c>
       <c r="G22" t="n">
-        <v>239.0015633095359</v>
+        <v>184.839645991224</v>
       </c>
       <c r="H22" t="n">
-        <v>136.3904974064924</v>
+        <v>82.22858008818058</v>
       </c>
       <c r="I22" t="n">
         <v>82.22858008818058</v>
@@ -5911,7 +5911,7 @@
         <v>168.8244381080956</v>
       </c>
       <c r="K22" t="n">
-        <v>413.3539063587898</v>
+        <v>413.3539063587897</v>
       </c>
       <c r="L22" t="n">
         <v>769.7909530255275</v>
@@ -5932,28 +5932,28 @@
         <v>2266.082113817915</v>
       </c>
       <c r="R22" t="n">
-        <v>2266.082113817915</v>
+        <v>2219.104434746164</v>
       </c>
       <c r="S22" t="n">
-        <v>2117.824077135945</v>
+        <v>2070.846398064195</v>
       </c>
       <c r="T22" t="n">
-        <v>1939.760028677275</v>
+        <v>1892.782349605525</v>
       </c>
       <c r="U22" t="n">
-        <v>1694.447821268848</v>
+        <v>1647.470142197097</v>
       </c>
       <c r="V22" t="n">
-        <v>1483.55513165597</v>
+        <v>1436.577452584219</v>
       </c>
       <c r="W22" t="n">
-        <v>1237.929760212017</v>
+        <v>1190.952081140267</v>
       </c>
       <c r="X22" t="n">
-        <v>1053.732007907008</v>
+        <v>1006.754328835258</v>
       </c>
       <c r="Y22" t="n">
-        <v>876.7312273564864</v>
+        <v>829.7535482847363</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5966,7 @@
         <v>2056.659574121279</v>
       </c>
       <c r="C23" t="n">
-        <v>1731.488855773875</v>
+        <v>1731.488855773876</v>
       </c>
       <c r="D23" t="n">
         <v>1417.014955760133</v>
@@ -5975,49 +5975,49 @@
         <v>1075.018501754897</v>
       </c>
       <c r="F23" t="n">
-        <v>707.8243955582976</v>
+        <v>707.8243955582981</v>
       </c>
       <c r="G23" t="n">
-        <v>336.4971867086438</v>
+        <v>336.4971867086437</v>
       </c>
       <c r="H23" t="n">
-        <v>82.22858008818059</v>
+        <v>82.22858008818058</v>
       </c>
       <c r="I23" t="n">
-        <v>82.22858008818059</v>
+        <v>82.22858008818058</v>
       </c>
       <c r="J23" t="n">
         <v>267.2348541364602</v>
       </c>
       <c r="K23" t="n">
-        <v>916.1537776971381</v>
+        <v>826.6012647387613</v>
       </c>
       <c r="L23" t="n">
-        <v>1359.987108847813</v>
+        <v>1270.434595889436</v>
       </c>
       <c r="M23" t="n">
-        <v>1885.506644724569</v>
+        <v>1795.954131766191</v>
       </c>
       <c r="N23" t="n">
-        <v>2424.143444484402</v>
+        <v>2334.590931526025</v>
       </c>
       <c r="O23" t="n">
-        <v>3296.419818758888</v>
+        <v>2829.875126350393</v>
       </c>
       <c r="P23" t="n">
-        <v>3684.632419377703</v>
+        <v>3536.668448058976</v>
       </c>
       <c r="Q23" t="n">
         <v>3990.219037769893</v>
       </c>
       <c r="R23" t="n">
-        <v>4111.429004409029</v>
+        <v>4111.429004409028</v>
       </c>
       <c r="S23" t="n">
         <v>4043.869210336601</v>
       </c>
       <c r="T23" t="n">
-        <v>3881.479456787104</v>
+        <v>3881.479456787103</v>
       </c>
       <c r="U23" t="n">
         <v>3671.737054070936</v>
@@ -6060,10 +6060,10 @@
         <v>182.607978923772</v>
       </c>
       <c r="H24" t="n">
-        <v>91.8655030718089</v>
+        <v>91.86550307180889</v>
       </c>
       <c r="I24" t="n">
-        <v>82.22858008818059</v>
+        <v>82.22858008818058</v>
       </c>
       <c r="J24" t="n">
         <v>173.5992025344837</v>
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>691.8968820475027</v>
+        <v>691.8968820475041</v>
       </c>
       <c r="C25" t="n">
-        <v>572.3564750624904</v>
+        <v>566.7524977126054</v>
       </c>
       <c r="D25" t="n">
-        <v>466.0316342431629</v>
+        <v>460.427656893278</v>
       </c>
       <c r="E25" t="n">
-        <v>466.0316342431629</v>
+        <v>356.3063619038932</v>
       </c>
       <c r="F25" t="n">
-        <v>362.9334853382608</v>
+        <v>253.2082129989911</v>
       </c>
       <c r="G25" t="n">
-        <v>239.001563309536</v>
+        <v>184.839645991224</v>
       </c>
       <c r="H25" t="n">
-        <v>136.3904974064925</v>
+        <v>82.22858008818058</v>
       </c>
       <c r="I25" t="n">
-        <v>82.22858008818059</v>
+        <v>82.22858008818058</v>
       </c>
       <c r="J25" t="n">
-        <v>168.8244381080955</v>
+        <v>168.8244381080956</v>
       </c>
       <c r="K25" t="n">
         <v>413.3539063587897</v>
@@ -6157,19 +6157,19 @@
         <v>1153.659824916262</v>
       </c>
       <c r="N25" t="n">
-        <v>1534.85631924075</v>
+        <v>1534.856319240751</v>
       </c>
       <c r="O25" t="n">
-        <v>1874.213143964565</v>
+        <v>1874.213143964566</v>
       </c>
       <c r="P25" t="n">
         <v>2147.265425662048</v>
       </c>
       <c r="Q25" t="n">
-        <v>2266.082113817914</v>
+        <v>2266.082113817915</v>
       </c>
       <c r="R25" t="n">
-        <v>2219.104434746163</v>
+        <v>2219.104434746164</v>
       </c>
       <c r="S25" t="n">
         <v>2070.846398064194</v>
@@ -6190,7 +6190,7 @@
         <v>1006.754328835257</v>
       </c>
       <c r="Y25" t="n">
-        <v>829.7535482847342</v>
+        <v>829.7535482847354</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2376.607816902849</v>
+        <v>2376.60781690285</v>
       </c>
       <c r="C26" t="n">
         <v>2007.645299962438</v>
@@ -6212,64 +6212,64 @@
         <v>1263.591348757443</v>
       </c>
       <c r="F26" t="n">
-        <v>852.6054439678353</v>
+        <v>852.6054439678355</v>
       </c>
       <c r="G26" t="n">
-        <v>437.4864365251727</v>
+        <v>437.486436525173</v>
       </c>
       <c r="H26" t="n">
         <v>139.4260313117016</v>
       </c>
       <c r="I26" t="n">
-        <v>95.63423271869333</v>
+        <v>95.6342327186933</v>
       </c>
       <c r="J26" t="n">
-        <v>280.640506766973</v>
+        <v>448.046155787326</v>
       </c>
       <c r="K26" t="n">
-        <v>608.6554718821978</v>
+        <v>1096.965079348004</v>
       </c>
       <c r="L26" t="n">
-        <v>1465.973405437819</v>
+        <v>1656.557191606629</v>
       </c>
       <c r="M26" t="n">
-        <v>2436.511339472478</v>
+        <v>2627.095125641289</v>
       </c>
       <c r="N26" t="n">
-        <v>3408.121594400176</v>
+        <v>3598.705380568987</v>
       </c>
       <c r="O26" t="n">
-        <v>4093.989575393357</v>
+        <v>4093.989575393355</v>
       </c>
       <c r="P26" t="n">
-        <v>4482.202176012172</v>
+        <v>4482.20217601217</v>
       </c>
       <c r="Q26" t="n">
-        <v>4725.560924969783</v>
+        <v>4725.560924969781</v>
       </c>
       <c r="R26" t="n">
-        <v>4781.711635934666</v>
+        <v>4781.711635934665</v>
       </c>
       <c r="S26" t="n">
-        <v>4670.36004326923</v>
+        <v>4670.360043269228</v>
       </c>
       <c r="T26" t="n">
-        <v>4464.178491126724</v>
+        <v>4464.178491126723</v>
       </c>
       <c r="U26" t="n">
-        <v>4210.644289817547</v>
+        <v>4210.644289817546</v>
       </c>
       <c r="V26" t="n">
-        <v>3879.581402473977</v>
+        <v>3879.581402473978</v>
       </c>
       <c r="W26" t="n">
-        <v>3526.812747203862</v>
+        <v>3526.812747203863</v>
       </c>
       <c r="X26" t="n">
-        <v>3153.346988942782</v>
+        <v>3153.346988942783</v>
       </c>
       <c r="Y26" t="n">
-        <v>2763.207656966971</v>
+        <v>2763.207656966972</v>
       </c>
     </row>
     <row r="27">
@@ -6291,40 +6291,40 @@
         <v>478.9362000397778</v>
       </c>
       <c r="F27" t="n">
-        <v>332.4016420666628</v>
+        <v>332.4016420666627</v>
       </c>
       <c r="G27" t="n">
-        <v>196.0136315542848</v>
+        <v>196.0136315542847</v>
       </c>
       <c r="H27" t="n">
         <v>105.2711557023216</v>
       </c>
       <c r="I27" t="n">
-        <v>95.63423271869333</v>
+        <v>95.6342327186933</v>
       </c>
       <c r="J27" t="n">
-        <v>187.0048551649964</v>
+        <v>187.0048551649963</v>
       </c>
       <c r="K27" t="n">
-        <v>421.3266269492748</v>
+        <v>421.3266269492747</v>
       </c>
       <c r="L27" t="n">
-        <v>782.7237073710912</v>
+        <v>782.723707371091</v>
       </c>
       <c r="M27" t="n">
-        <v>1223.813922396572</v>
+        <v>1223.813922396571</v>
       </c>
       <c r="N27" t="n">
-        <v>1690.987127824626</v>
+        <v>1719.976234517241</v>
       </c>
       <c r="O27" t="n">
-        <v>2096.139545898596</v>
+        <v>2125.128652591212</v>
       </c>
       <c r="P27" t="n">
-        <v>2401.977014027809</v>
+        <v>2430.966120720425</v>
       </c>
       <c r="Q27" t="n">
-        <v>2556.502065682221</v>
+        <v>2585.491172374837</v>
       </c>
       <c r="R27" t="n">
         <v>2585.491172374837</v>
@@ -6358,31 +6358,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>286.5726414956595</v>
+        <v>412.4835092289935</v>
       </c>
       <c r="C28" t="n">
-        <v>286.5726414956595</v>
+        <v>243.5473263010864</v>
       </c>
       <c r="D28" t="n">
-        <v>286.5726414956595</v>
+        <v>243.5473263010864</v>
       </c>
       <c r="E28" t="n">
-        <v>286.5726414956595</v>
+        <v>95.6342327186933</v>
       </c>
       <c r="F28" t="n">
-        <v>139.6826939977491</v>
+        <v>95.6342327186933</v>
       </c>
       <c r="G28" t="n">
-        <v>95.63423271869333</v>
+        <v>95.6342327186933</v>
       </c>
       <c r="H28" t="n">
-        <v>95.63423271869333</v>
+        <v>95.6342327186933</v>
       </c>
       <c r="I28" t="n">
-        <v>95.63423271869333</v>
+        <v>95.6342327186933</v>
       </c>
       <c r="J28" t="n">
-        <v>139.3097489376009</v>
+        <v>139.3097489376008</v>
       </c>
       <c r="K28" t="n">
         <v>340.9188753872876</v>
@@ -6400,34 +6400,34 @@
         <v>1630.096745789034</v>
       </c>
       <c r="P28" t="n">
-        <v>1860.228685685508</v>
+        <v>1860.228685685509</v>
       </c>
       <c r="Q28" t="n">
         <v>1936.125032040368</v>
       </c>
       <c r="R28" t="n">
-        <v>1936.125032040368</v>
+        <v>1845.355554375609</v>
       </c>
       <c r="S28" t="n">
-        <v>1744.07519676539</v>
+        <v>1653.305719100631</v>
       </c>
       <c r="T28" t="n">
-        <v>1522.219349713712</v>
+        <v>1431.449872048953</v>
       </c>
       <c r="U28" t="n">
-        <v>1233.115343712276</v>
+        <v>1142.345866047517</v>
       </c>
       <c r="V28" t="n">
-        <v>978.4308555063893</v>
+        <v>887.6613778416305</v>
       </c>
       <c r="W28" t="n">
-        <v>689.0136854694293</v>
+        <v>861.265639270541</v>
       </c>
       <c r="X28" t="n">
-        <v>689.0136854694293</v>
+        <v>633.2760883725236</v>
       </c>
       <c r="Y28" t="n">
-        <v>468.2211063258992</v>
+        <v>412.4835092289935</v>
       </c>
     </row>
     <row r="29">
@@ -6452,7 +6452,7 @@
         <v>852.605443967836</v>
       </c>
       <c r="G29" t="n">
-        <v>437.4864365251734</v>
+        <v>437.4864365251733</v>
       </c>
       <c r="H29" t="n">
         <v>139.426031311702</v>
@@ -6467,19 +6467,19 @@
         <v>929.5594303276509</v>
       </c>
       <c r="L29" t="n">
-        <v>1656.557191606631</v>
+        <v>1786.877363883272</v>
       </c>
       <c r="M29" t="n">
-        <v>2627.09512564129</v>
+        <v>2757.415297917931</v>
       </c>
       <c r="N29" t="n">
-        <v>3598.705380568988</v>
+        <v>3296.052097677765</v>
       </c>
       <c r="O29" t="n">
-        <v>4093.989575393357</v>
+        <v>3791.336292502133</v>
       </c>
       <c r="P29" t="n">
-        <v>4482.202176012172</v>
+        <v>4272.010335258866</v>
       </c>
       <c r="Q29" t="n">
         <v>4725.560924969783</v>
@@ -6543,25 +6543,25 @@
         <v>187.0048551649964</v>
       </c>
       <c r="K30" t="n">
-        <v>450.3157336418903</v>
+        <v>421.3266269492748</v>
       </c>
       <c r="L30" t="n">
-        <v>811.7128140637067</v>
+        <v>782.7237073710912</v>
       </c>
       <c r="M30" t="n">
-        <v>1252.803029089187</v>
+        <v>1223.813922396572</v>
       </c>
       <c r="N30" t="n">
-        <v>1719.976234517241</v>
+        <v>1690.987127824626</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.128652591212</v>
+        <v>2096.139545898596</v>
       </c>
       <c r="P30" t="n">
-        <v>2430.966120720425</v>
+        <v>2401.977014027809</v>
       </c>
       <c r="Q30" t="n">
-        <v>2585.491172374837</v>
+        <v>2556.502065682221</v>
       </c>
       <c r="R30" t="n">
         <v>2585.491172374837</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>599.3074757128184</v>
+        <v>410.4620391280904</v>
       </c>
       <c r="C31" t="n">
-        <v>430.3712927849115</v>
+        <v>410.4620391280904</v>
       </c>
       <c r="D31" t="n">
-        <v>411.2710469228196</v>
+        <v>341.5010422124066</v>
       </c>
       <c r="E31" t="n">
-        <v>263.3579533404264</v>
+        <v>193.5879486300135</v>
       </c>
       <c r="F31" t="n">
-        <v>263.3579533404264</v>
+        <v>193.5879486300135</v>
       </c>
       <c r="G31" t="n">
-        <v>95.63423271869333</v>
+        <v>193.5879486300135</v>
       </c>
       <c r="H31" t="n">
-        <v>95.63423271869333</v>
+        <v>193.5879486300135</v>
       </c>
       <c r="I31" t="n">
         <v>95.63423271869333</v>
@@ -6625,7 +6625,7 @@
         <v>340.9188753872877</v>
       </c>
       <c r="L31" t="n">
-        <v>654.4355802530181</v>
+        <v>654.4355802530179</v>
       </c>
       <c r="M31" t="n">
         <v>995.3841103427449</v>
@@ -6640,7 +6640,7 @@
         <v>1860.228685685509</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.125032040369</v>
+        <v>1936.125032040368</v>
       </c>
       <c r="R31" t="n">
         <v>1845.355554375609</v>
@@ -6652,19 +6652,19 @@
         <v>1653.305719100631</v>
       </c>
       <c r="U31" t="n">
-        <v>1364.201713099196</v>
+        <v>1364.201713099195</v>
       </c>
       <c r="V31" t="n">
-        <v>1109.517224893309</v>
+        <v>1109.517224893308</v>
       </c>
       <c r="W31" t="n">
-        <v>820.1000548563485</v>
+        <v>820.1000548563475</v>
       </c>
       <c r="X31" t="n">
-        <v>820.1000548563485</v>
+        <v>592.1105039583301</v>
       </c>
       <c r="Y31" t="n">
-        <v>599.3074757128184</v>
+        <v>592.1105039583301</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2376.60781690285</v>
+        <v>2376.607816902849</v>
       </c>
       <c r="C32" t="n">
-        <v>2007.645299962438</v>
+        <v>2007.645299962437</v>
       </c>
       <c r="D32" t="n">
-        <v>1649.379601355688</v>
+        <v>1649.379601355687</v>
       </c>
       <c r="E32" t="n">
         <v>1263.591348757443</v>
       </c>
       <c r="F32" t="n">
-        <v>852.605443967836</v>
+        <v>852.6054439678351</v>
       </c>
       <c r="G32" t="n">
-        <v>437.4864365251733</v>
+        <v>437.4864365251724</v>
       </c>
       <c r="H32" t="n">
         <v>139.4260313117016</v>
@@ -6704,46 +6704,46 @@
         <v>608.6554718821978</v>
       </c>
       <c r="L32" t="n">
-        <v>1465.973405437819</v>
+        <v>1052.488803032873</v>
       </c>
       <c r="M32" t="n">
-        <v>2436.511339472478</v>
+        <v>2023.026737067532</v>
       </c>
       <c r="N32" t="n">
-        <v>3408.121594400176</v>
+        <v>2994.63699199523</v>
       </c>
       <c r="O32" t="n">
-        <v>4093.989575393357</v>
+        <v>3500.157757876031</v>
       </c>
       <c r="P32" t="n">
-        <v>4482.202176012172</v>
+        <v>4206.951079584614</v>
       </c>
       <c r="Q32" t="n">
-        <v>4725.560924969783</v>
+        <v>4660.501669295531</v>
       </c>
       <c r="R32" t="n">
         <v>4781.711635934666</v>
       </c>
       <c r="S32" t="n">
-        <v>4670.36004326923</v>
+        <v>4670.360043269229</v>
       </c>
       <c r="T32" t="n">
-        <v>4464.178491126724</v>
+        <v>4464.178491126723</v>
       </c>
       <c r="U32" t="n">
-        <v>4210.644289817548</v>
+        <v>4210.644289817547</v>
       </c>
       <c r="V32" t="n">
-        <v>3879.581402473978</v>
+        <v>3879.581402473977</v>
       </c>
       <c r="W32" t="n">
-        <v>3526.812747203863</v>
+        <v>3526.812747203862</v>
       </c>
       <c r="X32" t="n">
         <v>3153.346988942783</v>
       </c>
       <c r="Y32" t="n">
-        <v>2763.207656966972</v>
+        <v>2763.207656966971</v>
       </c>
     </row>
     <row r="33">
@@ -6777,28 +6777,28 @@
         <v>95.63423271869333</v>
       </c>
       <c r="J33" t="n">
-        <v>187.0048551649964</v>
+        <v>215.9939618576119</v>
       </c>
       <c r="K33" t="n">
-        <v>421.3266269492748</v>
+        <v>450.3157336418903</v>
       </c>
       <c r="L33" t="n">
-        <v>782.7237073710912</v>
+        <v>811.7128140637067</v>
       </c>
       <c r="M33" t="n">
-        <v>1223.813922396572</v>
+        <v>1252.803029089187</v>
       </c>
       <c r="N33" t="n">
-        <v>1690.987127824626</v>
+        <v>1719.976234517241</v>
       </c>
       <c r="O33" t="n">
-        <v>2096.139545898596</v>
+        <v>2125.128652591212</v>
       </c>
       <c r="P33" t="n">
-        <v>2401.977014027809</v>
+        <v>2430.966120720425</v>
       </c>
       <c r="Q33" t="n">
-        <v>2556.502065682221</v>
+        <v>2585.491172374837</v>
       </c>
       <c r="R33" t="n">
         <v>2585.491172374837</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>558.1609944207296</v>
+        <v>478.7734659859962</v>
       </c>
       <c r="C34" t="n">
-        <v>558.1609944207296</v>
+        <v>309.8372830580894</v>
       </c>
       <c r="D34" t="n">
-        <v>558.1609944207296</v>
+        <v>309.8372830580894</v>
       </c>
       <c r="E34" t="n">
-        <v>410.2479008383368</v>
+        <v>161.9241894756963</v>
       </c>
       <c r="F34" t="n">
-        <v>263.3579533404264</v>
+        <v>161.9241894756963</v>
       </c>
       <c r="G34" t="n">
         <v>95.63423271869333</v>
@@ -6859,16 +6859,16 @@
         <v>139.3097489376009</v>
       </c>
       <c r="K34" t="n">
-        <v>340.9188753872876</v>
+        <v>340.9188753872879</v>
       </c>
       <c r="L34" t="n">
-        <v>654.435580253018</v>
+        <v>654.4355802530182</v>
       </c>
       <c r="M34" t="n">
-        <v>995.3841103427449</v>
+        <v>995.3841103427451</v>
       </c>
       <c r="N34" t="n">
-        <v>1333.660262866226</v>
+        <v>1333.660262866227</v>
       </c>
       <c r="O34" t="n">
         <v>1630.096745789034</v>
@@ -6880,28 +6880,28 @@
         <v>1936.125032040368</v>
       </c>
       <c r="R34" t="n">
-        <v>1936.125032040368</v>
+        <v>1845.355554375609</v>
       </c>
       <c r="S34" t="n">
-        <v>1744.07519676539</v>
+        <v>1653.305719100631</v>
       </c>
       <c r="T34" t="n">
-        <v>1744.07519676539</v>
+        <v>1653.305719100631</v>
       </c>
       <c r="U34" t="n">
-        <v>1454.971190763955</v>
+        <v>1653.305719100631</v>
       </c>
       <c r="V34" t="n">
-        <v>1200.286702558068</v>
+        <v>1398.621230894744</v>
       </c>
       <c r="W34" t="n">
-        <v>910.869532521107</v>
+        <v>1109.204060857783</v>
       </c>
       <c r="X34" t="n">
-        <v>682.8799816230896</v>
+        <v>881.214509959766</v>
       </c>
       <c r="Y34" t="n">
-        <v>558.1609944207296</v>
+        <v>660.4219308162359</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2056.659574121278</v>
+        <v>2056.65957412128</v>
       </c>
       <c r="C35" t="n">
-        <v>1731.488855773875</v>
+        <v>1731.488855773876</v>
       </c>
       <c r="D35" t="n">
-        <v>1417.014955760133</v>
+        <v>1417.014955760134</v>
       </c>
       <c r="E35" t="n">
-        <v>1075.018501754897</v>
+        <v>1075.018501754898</v>
       </c>
       <c r="F35" t="n">
-        <v>707.8243955582975</v>
+        <v>707.8243955582985</v>
       </c>
       <c r="G35" t="n">
         <v>336.4971867086438</v>
@@ -6938,22 +6938,22 @@
         <v>267.2348541364602</v>
       </c>
       <c r="K35" t="n">
-        <v>916.1537776971381</v>
+        <v>595.2498192516852</v>
       </c>
       <c r="L35" t="n">
-        <v>1359.987108847813</v>
+        <v>1039.08315040236</v>
       </c>
       <c r="M35" t="n">
-        <v>1885.506644724569</v>
+        <v>1861.013387440445</v>
       </c>
       <c r="N35" t="n">
-        <v>2424.143444484402</v>
+        <v>2399.650187200279</v>
       </c>
       <c r="O35" t="n">
-        <v>3296.419818758888</v>
+        <v>2894.934382024647</v>
       </c>
       <c r="P35" t="n">
-        <v>3811.919544486535</v>
+        <v>3601.72770373323</v>
       </c>
       <c r="Q35" t="n">
         <v>4055.278293444146</v>
@@ -6965,22 +6965,22 @@
         <v>4043.869210336601</v>
       </c>
       <c r="T35" t="n">
-        <v>3881.479456787103</v>
+        <v>3881.479456787104</v>
       </c>
       <c r="U35" t="n">
-        <v>3671.737054070935</v>
+        <v>3671.737054070936</v>
       </c>
       <c r="V35" t="n">
-        <v>3384.465965320373</v>
+        <v>3384.465965320374</v>
       </c>
       <c r="W35" t="n">
-        <v>3075.489108643267</v>
+        <v>3075.489108643268</v>
       </c>
       <c r="X35" t="n">
-        <v>2745.815148975195</v>
+        <v>2745.815148975196</v>
       </c>
       <c r="Y35" t="n">
-        <v>2399.467615592392</v>
+        <v>2399.467615592393</v>
       </c>
     </row>
     <row r="36">
@@ -7017,22 +7017,22 @@
         <v>173.5992025344837</v>
       </c>
       <c r="K36" t="n">
-        <v>407.920974318762</v>
+        <v>436.9100810113773</v>
       </c>
       <c r="L36" t="n">
-        <v>769.3180547405784</v>
+        <v>798.3071614331936</v>
       </c>
       <c r="M36" t="n">
-        <v>1210.408269766059</v>
+        <v>1239.397376458674</v>
       </c>
       <c r="N36" t="n">
-        <v>1677.581475194113</v>
+        <v>1706.570581886728</v>
       </c>
       <c r="O36" t="n">
-        <v>2082.733893268084</v>
+        <v>2111.722999960699</v>
       </c>
       <c r="P36" t="n">
-        <v>2388.571361397297</v>
+        <v>2417.560468089912</v>
       </c>
       <c r="Q36" t="n">
         <v>2572.085519744324</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>697.5008593973888</v>
+        <v>691.8968820475039</v>
       </c>
       <c r="C37" t="n">
-        <v>572.3564750624902</v>
+        <v>566.7524977126053</v>
       </c>
       <c r="D37" t="n">
-        <v>466.0316342431627</v>
+        <v>460.4276568932779</v>
       </c>
       <c r="E37" t="n">
-        <v>466.0316342431627</v>
+        <v>356.306361903893</v>
       </c>
       <c r="F37" t="n">
-        <v>362.9334853382607</v>
+        <v>253.208212998991</v>
       </c>
       <c r="G37" t="n">
         <v>239.0015633095359</v>
       </c>
       <c r="H37" t="n">
-        <v>136.3904974064925</v>
+        <v>136.3904974064924</v>
       </c>
       <c r="I37" t="n">
         <v>82.22858008818059</v>
@@ -7099,7 +7099,7 @@
         <v>413.3539063587897</v>
       </c>
       <c r="L37" t="n">
-        <v>769.7909530255275</v>
+        <v>769.7909530255274</v>
       </c>
       <c r="M37" t="n">
         <v>1153.659824916262</v>
@@ -7120,25 +7120,25 @@
         <v>2219.104434746164</v>
       </c>
       <c r="S37" t="n">
-        <v>2076.450375414079</v>
+        <v>2070.846398064194</v>
       </c>
       <c r="T37" t="n">
-        <v>1898.386326955409</v>
+        <v>1892.782349605524</v>
       </c>
       <c r="U37" t="n">
-        <v>1653.074119546982</v>
+        <v>1647.470142197097</v>
       </c>
       <c r="V37" t="n">
-        <v>1442.181429934103</v>
+        <v>1436.577452584218</v>
       </c>
       <c r="W37" t="n">
-        <v>1196.556058490151</v>
+        <v>1190.952081140266</v>
       </c>
       <c r="X37" t="n">
-        <v>1012.358306185142</v>
+        <v>1006.754328835257</v>
       </c>
       <c r="Y37" t="n">
-        <v>835.3575256346203</v>
+        <v>829.7535482847353</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2056.65957412128</v>
+        <v>2056.659574121279</v>
       </c>
       <c r="C38" t="n">
-        <v>1731.488855773876</v>
+        <v>1731.488855773875</v>
       </c>
       <c r="D38" t="n">
-        <v>1417.014955760134</v>
+        <v>1417.014955760133</v>
       </c>
       <c r="E38" t="n">
-        <v>1075.018501754898</v>
+        <v>1075.018501754897</v>
       </c>
       <c r="F38" t="n">
-        <v>707.8243955582985</v>
+        <v>707.824395558298</v>
       </c>
       <c r="G38" t="n">
         <v>336.4971867086438</v>
@@ -7175,22 +7175,22 @@
         <v>267.2348541364602</v>
       </c>
       <c r="K38" t="n">
-        <v>916.1537776971381</v>
+        <v>595.2498192516852</v>
       </c>
       <c r="L38" t="n">
-        <v>1359.987108847813</v>
+        <v>1452.567752807306</v>
       </c>
       <c r="M38" t="n">
-        <v>1885.506644724569</v>
+        <v>1978.087288684061</v>
       </c>
       <c r="N38" t="n">
-        <v>2424.143444484402</v>
+        <v>2516.724088443895</v>
       </c>
       <c r="O38" t="n">
-        <v>2919.42763930877</v>
+        <v>3105.126222777952</v>
       </c>
       <c r="P38" t="n">
-        <v>3601.72770373323</v>
+        <v>3811.919544486535</v>
       </c>
       <c r="Q38" t="n">
         <v>4055.278293444146</v>
@@ -7208,7 +7208,7 @@
         <v>3671.737054070936</v>
       </c>
       <c r="V38" t="n">
-        <v>3384.465965320374</v>
+        <v>3384.465965320373</v>
       </c>
       <c r="W38" t="n">
         <v>3075.489108643268</v>
@@ -7269,10 +7269,10 @@
         <v>2082.733893268084</v>
       </c>
       <c r="P39" t="n">
-        <v>2388.571361397297</v>
+        <v>2417.560468089912</v>
       </c>
       <c r="Q39" t="n">
-        <v>2543.096413051709</v>
+        <v>2572.085519744324</v>
       </c>
       <c r="R39" t="n">
         <v>2572.085519744324</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>691.8968820475029</v>
+        <v>691.8968820475027</v>
       </c>
       <c r="C40" t="n">
-        <v>676.477770051875</v>
+        <v>566.7524977126041</v>
       </c>
       <c r="D40" t="n">
-        <v>570.1529292325476</v>
+        <v>460.4276568932765</v>
       </c>
       <c r="E40" t="n">
-        <v>466.0316342431628</v>
+        <v>363.4205683401194</v>
       </c>
       <c r="F40" t="n">
-        <v>362.9334853382607</v>
+        <v>260.3224194352173</v>
       </c>
       <c r="G40" t="n">
-        <v>239.0015633095359</v>
+        <v>136.3904974064925</v>
       </c>
       <c r="H40" t="n">
         <v>136.3904974064925</v>
@@ -7330,16 +7330,16 @@
         <v>82.22858008818059</v>
       </c>
       <c r="J40" t="n">
-        <v>168.8244381080956</v>
+        <v>168.8244381080954</v>
       </c>
       <c r="K40" t="n">
-        <v>413.3539063587898</v>
+        <v>413.3539063587895</v>
       </c>
       <c r="L40" t="n">
-        <v>769.7909530255276</v>
+        <v>769.7909530255272</v>
       </c>
       <c r="M40" t="n">
-        <v>1153.659824916262</v>
+        <v>1153.659824916261</v>
       </c>
       <c r="N40" t="n">
         <v>1534.85631924075</v>
@@ -7354,7 +7354,7 @@
         <v>2266.082113817914</v>
       </c>
       <c r="R40" t="n">
-        <v>2219.104434746164</v>
+        <v>2219.104434746163</v>
       </c>
       <c r="S40" t="n">
         <v>2070.846398064194</v>
@@ -7375,7 +7375,7 @@
         <v>1006.754328835256</v>
       </c>
       <c r="Y40" t="n">
-        <v>829.7535482847343</v>
+        <v>829.7535482847342</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7388,7 @@
         <v>2056.659574121279</v>
       </c>
       <c r="C41" t="n">
-        <v>1731.488855773876</v>
+        <v>1731.488855773875</v>
       </c>
       <c r="D41" t="n">
         <v>1417.014955760133</v>
@@ -7397,58 +7397,58 @@
         <v>1075.018501754897</v>
       </c>
       <c r="F41" t="n">
-        <v>707.8243955582981</v>
+        <v>707.8243955582979</v>
       </c>
       <c r="G41" t="n">
-        <v>336.4971867086438</v>
+        <v>336.4971867086437</v>
       </c>
       <c r="H41" t="n">
-        <v>82.22858008818059</v>
+        <v>82.22858008818058</v>
       </c>
       <c r="I41" t="n">
-        <v>82.22858008818059</v>
+        <v>82.22858008818058</v>
       </c>
       <c r="J41" t="n">
-        <v>434.6405031568133</v>
+        <v>267.2348541364602</v>
       </c>
       <c r="K41" t="n">
-        <v>762.6554682720382</v>
+        <v>916.1537776971381</v>
       </c>
       <c r="L41" t="n">
-        <v>1422.214978282393</v>
+        <v>1366.233702564645</v>
       </c>
       <c r="M41" t="n">
-        <v>1947.734514159148</v>
+        <v>1891.7532384414</v>
       </c>
       <c r="N41" t="n">
-        <v>2486.371313918981</v>
+        <v>2863.363493369098</v>
       </c>
       <c r="O41" t="n">
-        <v>3358.647688193467</v>
+        <v>3358.647688193466</v>
       </c>
       <c r="P41" t="n">
-        <v>3746.860288812282</v>
+        <v>3746.860288812281</v>
       </c>
       <c r="Q41" t="n">
         <v>3990.219037769893</v>
       </c>
       <c r="R41" t="n">
-        <v>4111.429004409029</v>
+        <v>4111.429004409028</v>
       </c>
       <c r="S41" t="n">
-        <v>4043.869210336601</v>
+        <v>4043.8692103366</v>
       </c>
       <c r="T41" t="n">
         <v>3881.479456787103</v>
       </c>
       <c r="U41" t="n">
-        <v>3671.737054070936</v>
+        <v>3671.737054070935</v>
       </c>
       <c r="V41" t="n">
         <v>3384.465965320373</v>
       </c>
       <c r="W41" t="n">
-        <v>3075.489108643268</v>
+        <v>3075.489108643267</v>
       </c>
       <c r="X41" t="n">
         <v>2745.815148975196</v>
@@ -7482,10 +7482,10 @@
         <v>182.607978923772</v>
       </c>
       <c r="H42" t="n">
-        <v>91.8655030718089</v>
+        <v>91.86550307180889</v>
       </c>
       <c r="I42" t="n">
-        <v>82.22858008818059</v>
+        <v>82.22858008818058</v>
       </c>
       <c r="J42" t="n">
         <v>173.5992025344837</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>738.8745611192554</v>
+        <v>691.8968820475041</v>
       </c>
       <c r="C43" t="n">
-        <v>613.7301767843568</v>
+        <v>566.7524977126063</v>
       </c>
       <c r="D43" t="n">
-        <v>515.9910119142357</v>
+        <v>566.7524977126063</v>
       </c>
       <c r="E43" t="n">
-        <v>411.8697169248509</v>
+        <v>462.6312027232215</v>
       </c>
       <c r="F43" t="n">
-        <v>308.7715680199488</v>
+        <v>362.9334853382607</v>
       </c>
       <c r="G43" t="n">
-        <v>184.8396459912241</v>
+        <v>239.001563309536</v>
       </c>
       <c r="H43" t="n">
-        <v>82.22858008818059</v>
+        <v>136.3904974064924</v>
       </c>
       <c r="I43" t="n">
-        <v>82.22858008818059</v>
+        <v>82.22858008818058</v>
       </c>
       <c r="J43" t="n">
-        <v>168.8244381080955</v>
+        <v>168.8244381080956</v>
       </c>
       <c r="K43" t="n">
-        <v>413.3539063587897</v>
+        <v>413.3539063587898</v>
       </c>
       <c r="L43" t="n">
-        <v>769.7909530255274</v>
+        <v>769.7909530255275</v>
       </c>
       <c r="M43" t="n">
         <v>1153.659824916262</v>
@@ -7591,28 +7591,28 @@
         <v>2266.082113817915</v>
       </c>
       <c r="R43" t="n">
-        <v>2266.082113817915</v>
+        <v>2219.104434746164</v>
       </c>
       <c r="S43" t="n">
-        <v>2117.824077135945</v>
+        <v>2070.846398064194</v>
       </c>
       <c r="T43" t="n">
-        <v>1939.760028677275</v>
+        <v>1892.782349605525</v>
       </c>
       <c r="U43" t="n">
-        <v>1694.447821268849</v>
+        <v>1647.470142197097</v>
       </c>
       <c r="V43" t="n">
-        <v>1483.55513165597</v>
+        <v>1436.577452584218</v>
       </c>
       <c r="W43" t="n">
-        <v>1237.929760212018</v>
+        <v>1190.952081140266</v>
       </c>
       <c r="X43" t="n">
-        <v>1053.732007907009</v>
+        <v>1006.754328835257</v>
       </c>
       <c r="Y43" t="n">
-        <v>876.7312273564869</v>
+        <v>829.7535482847354</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2047.880627226839</v>
+        <v>1617.712229399306</v>
       </c>
       <c r="C44" t="n">
-        <v>1722.709908879436</v>
+        <v>1292.541511051903</v>
       </c>
       <c r="D44" t="n">
-        <v>1408.236008865694</v>
+        <v>978.067611038161</v>
       </c>
       <c r="E44" t="n">
-        <v>1066.239554860458</v>
+        <v>978.067611038161</v>
       </c>
       <c r="F44" t="n">
-        <v>699.0454486638585</v>
+        <v>610.8735048415617</v>
       </c>
       <c r="G44" t="n">
-        <v>327.7182398142043</v>
+        <v>239.5462959919074</v>
       </c>
       <c r="H44" t="n">
-        <v>73.44963319374112</v>
+        <v>73.44963319374114</v>
       </c>
       <c r="I44" t="n">
-        <v>73.44963319374112</v>
+        <v>73.44963319374114</v>
       </c>
       <c r="J44" t="n">
         <v>258.4559072420208</v>
       </c>
       <c r="K44" t="n">
-        <v>907.3748308026987</v>
+        <v>586.4708723572458</v>
       </c>
       <c r="L44" t="n">
-        <v>1351.208161953374</v>
+        <v>1425.319068684791</v>
       </c>
       <c r="M44" t="n">
-        <v>1876.727697830129</v>
+        <v>1950.838604561546</v>
       </c>
       <c r="N44" t="n">
-        <v>2415.364497589962</v>
+        <v>2489.475404321379</v>
       </c>
       <c r="O44" t="n">
-        <v>2910.648692414331</v>
+        <v>2984.759599145747</v>
       </c>
       <c r="P44" t="n">
-        <v>3298.861293033146</v>
+        <v>3372.972199764562</v>
       </c>
       <c r="Q44" t="n">
-        <v>3551.27169304792</v>
+        <v>3616.330948722174</v>
       </c>
       <c r="R44" t="n">
-        <v>3672.481659687056</v>
+        <v>3672.481659687057</v>
       </c>
       <c r="S44" t="n">
-        <v>3672.481659687056</v>
+        <v>3604.921865614629</v>
       </c>
       <c r="T44" t="n">
-        <v>3662.958107176496</v>
+        <v>3442.532112065132</v>
       </c>
       <c r="U44" t="n">
-        <v>3662.958107176496</v>
+        <v>3232.789709348963</v>
       </c>
       <c r="V44" t="n">
-        <v>3375.687018425933</v>
+        <v>2945.518620598401</v>
       </c>
       <c r="W44" t="n">
-        <v>3066.710161748828</v>
+        <v>2636.541763921295</v>
       </c>
       <c r="X44" t="n">
-        <v>2737.036202080756</v>
+        <v>2306.867804253223</v>
       </c>
       <c r="Y44" t="n">
-        <v>2390.688668697952</v>
+        <v>1960.52027087042</v>
       </c>
     </row>
     <row r="45">
@@ -7719,10 +7719,10 @@
         <v>173.8290320293326</v>
       </c>
       <c r="H45" t="n">
-        <v>83.08655617736943</v>
+        <v>83.08655617736945</v>
       </c>
       <c r="I45" t="n">
-        <v>73.44963319374112</v>
+        <v>73.44963319374114</v>
       </c>
       <c r="J45" t="n">
         <v>164.8202556400442</v>
@@ -7746,7 +7746,7 @@
         <v>2379.792414502857</v>
       </c>
       <c r="Q45" t="n">
-        <v>2534.317466157269</v>
+        <v>2563.306572849885</v>
       </c>
       <c r="R45" t="n">
         <v>2563.306572849885</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>683.1179351530641</v>
+        <v>738.6812901740223</v>
       </c>
       <c r="C46" t="n">
-        <v>557.9735508181654</v>
+        <v>613.5369058391236</v>
       </c>
       <c r="D46" t="n">
-        <v>451.6487099988381</v>
+        <v>507.2120650197962</v>
       </c>
       <c r="E46" t="n">
-        <v>347.5274150094533</v>
+        <v>403.0907700304114</v>
       </c>
       <c r="F46" t="n">
         <v>299.9926211255093</v>
@@ -7798,19 +7798,19 @@
         <v>176.0606990967846</v>
       </c>
       <c r="H46" t="n">
-        <v>73.44963319374112</v>
+        <v>73.44963319374114</v>
       </c>
       <c r="I46" t="n">
-        <v>73.44963319374112</v>
+        <v>73.44963319374114</v>
       </c>
       <c r="J46" t="n">
-        <v>160.0454912136561</v>
+        <v>160.0454912136562</v>
       </c>
       <c r="K46" t="n">
-        <v>404.5749594643505</v>
+        <v>404.5749594643503</v>
       </c>
       <c r="L46" t="n">
-        <v>761.0120061310882</v>
+        <v>761.012006131088</v>
       </c>
       <c r="M46" t="n">
         <v>1144.880878021822</v>
@@ -7819,19 +7819,19 @@
         <v>1526.077372346311</v>
       </c>
       <c r="O46" t="n">
-        <v>1865.434197070126</v>
+        <v>1865.434197070127</v>
       </c>
       <c r="P46" t="n">
-        <v>2138.486478767608</v>
+        <v>2138.486478767609</v>
       </c>
       <c r="Q46" t="n">
-        <v>2257.303166923475</v>
+        <v>2257.303166923476</v>
       </c>
       <c r="R46" t="n">
-        <v>2210.325487851724</v>
+        <v>2210.325487851725</v>
       </c>
       <c r="S46" t="n">
-        <v>2062.067451169754</v>
+        <v>2062.067451169755</v>
       </c>
       <c r="T46" t="n">
         <v>1884.003402711085</v>
@@ -7846,10 +7846,10 @@
         <v>1182.173134245827</v>
       </c>
       <c r="X46" t="n">
-        <v>997.9753819408177</v>
+        <v>1053.538736961776</v>
       </c>
       <c r="Y46" t="n">
-        <v>820.9746013902954</v>
+        <v>876.5379564112536</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7979,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>235.3925885601156</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>250.4508600602684</v>
+        <v>251.0691524851223</v>
       </c>
       <c r="M2" t="n">
-        <v>230.3462332272727</v>
+        <v>245.6489707424078</v>
       </c>
       <c r="N2" t="n">
-        <v>244.715801111726</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
-        <v>245.4009489368218</v>
+        <v>244.7826565119678</v>
       </c>
       <c r="P2" t="n">
-        <v>231.2329957552695</v>
+        <v>246.5357332704046</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,25 +8058,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>153.144176489494</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>153.8571172950092</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
         <v>157.4367714371534</v>
       </c>
       <c r="N3" t="n">
-        <v>146.0261571736144</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>157.2806895347256</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>149.2771449294653</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>155.2845116011566</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8146,10 +8146,10 @@
         <v>154.2285214627401</v>
       </c>
       <c r="N4" t="n">
-        <v>142.9882819803682</v>
+        <v>142.3699895555143</v>
       </c>
       <c r="O4" t="n">
-        <v>153.1409835421239</v>
+        <v>153.7592759669778</v>
       </c>
       <c r="P4" t="n">
         <v>135.0065633140411</v>
@@ -8216,10 +8216,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>220.0898510449805</v>
+        <v>235.3925885601156</v>
       </c>
       <c r="L5" t="n">
-        <v>235.7664149699872</v>
+        <v>251.0691524851223</v>
       </c>
       <c r="M5" t="n">
         <v>245.0306783175538</v>
@@ -8228,10 +8228,10 @@
         <v>244.715801111726</v>
       </c>
       <c r="O5" t="n">
-        <v>245.4009489368218</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P5" t="n">
-        <v>246.5357332704046</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8295,16 +8295,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>152.5258840646401</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>153.8571172950092</v>
       </c>
       <c r="M6" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>146.0261571736144</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
         <v>157.8989819595795</v>
@@ -8313,7 +8313,7 @@
         <v>149.2771449294653</v>
       </c>
       <c r="Q6" t="n">
-        <v>155.2845116011566</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8377,7 +8377,7 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
-        <v>150.1874137963733</v>
+        <v>149.5691213715194</v>
       </c>
       <c r="M7" t="n">
         <v>154.2285214627401</v>
@@ -8386,7 +8386,7 @@
         <v>142.9882819803682</v>
       </c>
       <c r="O7" t="n">
-        <v>153.1409835421239</v>
+        <v>153.7592759669778</v>
       </c>
       <c r="P7" t="n">
         <v>135.0065633140411</v>
@@ -8453,16 +8453,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>235.3925885601156</v>
+        <v>234.7742961352617</v>
       </c>
       <c r="L8" t="n">
         <v>235.7664149699872</v>
       </c>
       <c r="M8" t="n">
-        <v>230.3462332272727</v>
+        <v>245.6489707424078</v>
       </c>
       <c r="N8" t="n">
-        <v>244.097508686872</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O8" t="n">
         <v>245.4009489368218</v>
@@ -8535,22 +8535,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>153.8571172950092</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>157.4367714371534</v>
       </c>
       <c r="N9" t="n">
-        <v>146.0261571736144</v>
+        <v>146.6444495984684</v>
       </c>
       <c r="O9" t="n">
-        <v>157.8989819595795</v>
+        <v>157.2806895347256</v>
       </c>
       <c r="P9" t="n">
-        <v>149.2771449294653</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>155.2845116011566</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8617,13 +8617,13 @@
         <v>150.1874137963733</v>
       </c>
       <c r="M10" t="n">
-        <v>154.2285214627401</v>
+        <v>153.6102290378862</v>
       </c>
       <c r="N10" t="n">
         <v>142.9882819803682</v>
       </c>
       <c r="O10" t="n">
-        <v>153.1409835421239</v>
+        <v>153.7592759669778</v>
       </c>
       <c r="P10" t="n">
         <v>135.0065633140411</v>
@@ -8687,10 +8687,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8705,10 +8705,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>9.143081875923428</v>
       </c>
       <c r="Q11" t="n">
-        <v>164.1918792750124</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8787,10 +8787,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>29.28192595213721</v>
       </c>
       <c r="R12" t="n">
-        <v>30.95599606820898</v>
+        <v>1.674070116071931</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8930,19 +8930,19 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>77.2062061485878</v>
       </c>
       <c r="M14" t="n">
-        <v>387.2926009048393</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>11.71231341522912</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9170,22 +9170,22 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>18.20473305732503</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>164.1918792750124</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>128.5728536452839</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9413,16 +9413,16 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>121.857906863564</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,10 +9480,10 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>29.28192595213659</v>
       </c>
       <c r="L21" t="n">
-        <v>29.28192595213665</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9638,7 +9638,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>233.6883287748245</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9650,13 +9650,13 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>62.85643377230227</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9872,13 +9872,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>116.9280617252022</v>
       </c>
       <c r="M26" t="n">
         <v>449.5135334928325</v>
@@ -9887,7 +9887,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>192.5088749179924</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -9963,7 +9963,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>29.2819259521371</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9975,7 +9975,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>30.95599606820898</v>
+        <v>1.674070116071931</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10115,22 +10115,22 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>286.0246768972777</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>93.39539609890687</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10191,7 +10191,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>29.28192595213687</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10212,7 +10212,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>1.674070116071931</v>
+        <v>30.95599606820898</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10352,7 +10352,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10361,16 +10361,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>192.5088749179924</v>
+        <v>10.33997076407314</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>29.28192595213692</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10449,7 +10449,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>30.95599606820898</v>
+        <v>1.674070116071931</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10586,25 +10586,25 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>299.4047486478078</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>128.5728536452846</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10665,7 +10665,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>29.28192595213659</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10683,7 +10683,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>29.28192595213676</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>1.674070116071931</v>
@@ -10823,10 +10823,10 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10835,13 +10835,13 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>94.05852475726203</v>
       </c>
       <c r="P38" t="n">
-        <v>297.0580442481256</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>29.28192595213665</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>30.95599606820852</v>
+        <v>1.674070116071931</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,22 +11057,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>217.9052311713933</v>
+        <v>6.309690623062636</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11297,10 +11297,10 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>399.0049143200706</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11315,10 +11315,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.14308187592269</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11394,10 +11394,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>29.28192595213721</v>
       </c>
       <c r="R45" t="n">
-        <v>30.95599606820898</v>
+        <v>1.674070116071931</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23258,7 +23258,7 @@
         <v>339.3799610564024</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>86.48675279285476</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23306,10 +23306,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>66.8841961317038</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>19.60255666115384</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23428,7 +23428,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>108.6280196158775</v>
+        <v>108.6280196158766</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23504,13 +23504,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>174.1407932949988</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>251.7259205542586</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>66.8841961317038</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>160.7658560140023</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>198.216661703553</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23665,10 +23665,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>7.043064371864304</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>101.5849552440131</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>108.6280196158773</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>174.1407932949986</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23744,10 +23744,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>358.9825177175551</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>251.7259205542585</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>66.8841961317038</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>103.0800820394909</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>108.6280196158776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>5.547937576385969</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>1.56319401867222e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24032,7 +24032,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>62.12011733484385</v>
+        <v>55.00772147074724</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>53.62029814512874</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.50790228103332</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>5.547937576387518</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>103.080082039491</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>55.00772147074807</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>53.62029814512873</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24598,22 +24598,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>122.4385067492505</v>
+        <v>166.0464834155157</v>
       </c>
       <c r="H28" t="n">
         <v>144.9388358510913</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>89.86178288811152</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24661,10 +24661,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>260.3912171512124</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,13 +24835,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>129.7062296147414</v>
+        <v>80.34408607168514</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0464834155157</v>
       </c>
       <c r="H31" t="n">
         <v>144.9388358510913</v>
       </c>
       <c r="I31" t="n">
-        <v>96.97417875220695</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24901,10 +24901,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,10 +25072,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25084,10 +25084,10 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>100.4194262260827</v>
       </c>
       <c r="H34" t="n">
         <v>144.9388358510913</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>89.86178288811152</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>219.6372885811612</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2129659414213</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>95.11285602175836</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25318,13 +25318,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>103.080082039491</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>108.628019615877</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>5.547937576385798</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25549,13 +25549,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>108.628019615878</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>7.043064371865341</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>101.5849552440131</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25676,7 +25676,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>-6.213812306131913e-13</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25789,13 +25789,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>8.49981918971433</v>
+        <v>105.2615924111341</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>3.366427204741908</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>53.62029814512876</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.50790228103332</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25871,7 +25871,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>338.5764894651836</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25880,7 +25880,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>87.29022438407387</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25913,13 +25913,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.8841961317038</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>151.3375390285482</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>207.6449786890064</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26032,7 +26032,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>55.00772147074859</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>53.62029814512876</v>
+        <v>53.62029814512873</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26086,7 +26086,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>55.00772147074808</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>761231.535938056</v>
+        <v>761231.5359380563</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>761231.5359380561</v>
+        <v>761231.5359380562</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>761231.535938056</v>
+        <v>761231.5359380562</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>802947.0780801902</v>
+        <v>802947.0780801903</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>793905.4786603505</v>
+        <v>793905.4786603504</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>793905.4786603505</v>
+        <v>793905.4786603504</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>793905.4786603505</v>
+        <v>793905.4786603504</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>802947.0780801902</v>
+        <v>802947.0780801903</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>761231.5359380561</v>
+        <v>761231.5359380563</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914266</v>
+        <v>656833.4158914265</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914265</v>
+        <v>656833.4158914267</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914266</v>
+        <v>656833.4158914267</v>
       </c>
       <c r="E2" t="n">
-        <v>627628.5655768807</v>
+        <v>627628.5655768806</v>
       </c>
       <c r="F2" t="n">
-        <v>627628.5655768809</v>
+        <v>627628.5655768811</v>
       </c>
       <c r="G2" t="n">
-        <v>627628.5655768809</v>
+        <v>627628.5655768812</v>
       </c>
       <c r="H2" t="n">
+        <v>654747.7579148014</v>
+      </c>
+      <c r="I2" t="n">
         <v>654747.7579148016</v>
       </c>
-      <c r="I2" t="n">
-        <v>654747.7579148017</v>
-      </c>
       <c r="J2" t="n">
-        <v>634902.8069366791</v>
+        <v>634902.8069366788</v>
       </c>
       <c r="K2" t="n">
-        <v>634902.8069366789</v>
+        <v>634902.8069366788</v>
       </c>
       <c r="L2" t="n">
         <v>634902.8069366791</v>
       </c>
       <c r="M2" t="n">
+        <v>654747.7579148017</v>
+      </c>
+      <c r="N2" t="n">
+        <v>654747.7579148012</v>
+      </c>
+      <c r="O2" t="n">
         <v>654747.7579148015</v>
       </c>
-      <c r="N2" t="n">
-        <v>654747.7579148017</v>
-      </c>
-      <c r="O2" t="n">
-        <v>654747.7579148017</v>
-      </c>
       <c r="P2" t="n">
-        <v>627628.5655768809</v>
+        <v>627628.5655768806</v>
       </c>
     </row>
     <row r="3">
@@ -26378,25 +26378,25 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="H3" t="n">
-        <v>29607.98603302272</v>
+        <v>29607.9860330226</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>47847.72666513344</v>
+        <v>47847.72666513338</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.170374162029475e-10</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="M3" t="n">
-        <v>217909.6027394254</v>
+        <v>217909.6027394255</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,22 +26424,22 @@
         <v>402526.5473127806</v>
       </c>
       <c r="E4" t="n">
-        <v>60394.63942989465</v>
+        <v>60394.63942989472</v>
       </c>
       <c r="F4" t="n">
-        <v>60394.63942989465</v>
+        <v>60394.63942989469</v>
       </c>
       <c r="G4" t="n">
-        <v>60394.63942989465</v>
+        <v>60394.63942989473</v>
       </c>
       <c r="H4" t="n">
-        <v>69958.02158660711</v>
+        <v>69958.02158660712</v>
       </c>
       <c r="I4" t="n">
-        <v>69958.02158660709</v>
+        <v>69958.02158660714</v>
       </c>
       <c r="J4" t="n">
-        <v>40750.44614231829</v>
+        <v>40750.44614231825</v>
       </c>
       <c r="K4" t="n">
         <v>40750.44614231829</v>
@@ -26448,16 +26448,16 @@
         <v>40750.44614231829</v>
       </c>
       <c r="M4" t="n">
-        <v>69958.02158660712</v>
+        <v>69958.02158660715</v>
       </c>
       <c r="N4" t="n">
-        <v>69958.02158660712</v>
+        <v>69958.02158660711</v>
       </c>
       <c r="O4" t="n">
         <v>69958.02158660712</v>
       </c>
       <c r="P4" t="n">
-        <v>60394.63942989468</v>
+        <v>60394.63942989473</v>
       </c>
     </row>
     <row r="5">
@@ -26476,13 +26476,13 @@
         <v>34558.00644092021</v>
       </c>
       <c r="E5" t="n">
-        <v>82973.6268425968</v>
+        <v>82973.62684259683</v>
       </c>
       <c r="F5" t="n">
-        <v>82973.6268425968</v>
+        <v>82973.62684259683</v>
       </c>
       <c r="G5" t="n">
-        <v>82973.6268425968</v>
+        <v>82973.62684259683</v>
       </c>
       <c r="H5" t="n">
         <v>89645.6264823708</v>
@@ -26491,7 +26491,7 @@
         <v>89645.6264823708</v>
       </c>
       <c r="J5" t="n">
-        <v>96189.20509280404</v>
+        <v>96189.20509280401</v>
       </c>
       <c r="K5" t="n">
         <v>96189.20509280404</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>214620.5628334412</v>
+        <v>214620.562833441</v>
       </c>
       <c r="C6" t="n">
-        <v>219748.8621377257</v>
+        <v>219748.8621377259</v>
       </c>
       <c r="D6" t="n">
-        <v>219748.8621377258</v>
+        <v>219748.8621377259</v>
       </c>
       <c r="E6" t="n">
-        <v>-686302.9045473108</v>
+        <v>-686394.1697045442</v>
       </c>
       <c r="F6" t="n">
-        <v>484260.2993043895</v>
+        <v>484169.0341471566</v>
       </c>
       <c r="G6" t="n">
-        <v>484260.2993043895</v>
+        <v>484169.0341471567</v>
       </c>
       <c r="H6" t="n">
-        <v>465536.123812801</v>
+        <v>465529.6061316239</v>
       </c>
       <c r="I6" t="n">
-        <v>495144.1098458238</v>
+        <v>495137.5921646468</v>
       </c>
       <c r="J6" t="n">
-        <v>450115.4290364232</v>
+        <v>450046.8958834395</v>
       </c>
       <c r="K6" t="n">
-        <v>497963.1557015566</v>
+        <v>497894.6225485728</v>
       </c>
       <c r="L6" t="n">
-        <v>497963.1557015567</v>
+        <v>497894.6225485731</v>
       </c>
       <c r="M6" t="n">
-        <v>277234.5071063982</v>
+        <v>277227.9894252213</v>
       </c>
       <c r="N6" t="n">
-        <v>495144.1098458238</v>
+        <v>495137.5921646464</v>
       </c>
       <c r="O6" t="n">
-        <v>495144.1098458238</v>
+        <v>495137.5921646467</v>
       </c>
       <c r="P6" t="n">
-        <v>484260.2993043894</v>
+        <v>484169.0341471561</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="F2" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707819</v>
       </c>
       <c r="G2" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="H2" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="I2" t="n">
-        <v>43.35388060707816</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707821</v>
       </c>
       <c r="N2" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707817</v>
       </c>
       <c r="O2" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="P2" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
     </row>
     <row r="3">
@@ -26796,13 +26796,13 @@
         <v>15.30273751513505</v>
       </c>
       <c r="E4" t="n">
-        <v>918.1204149217638</v>
+        <v>918.1204149217642</v>
       </c>
       <c r="F4" t="n">
-        <v>918.1204149217638</v>
+        <v>918.1204149217642</v>
       </c>
       <c r="G4" t="n">
-        <v>918.1204149217638</v>
+        <v>918.1204149217642</v>
       </c>
       <c r="H4" t="n">
         <v>1027.857251102257</v>
@@ -26811,7 +26811,7 @@
         <v>1027.857251102257</v>
       </c>
       <c r="J4" t="n">
-        <v>1195.427908983667</v>
+        <v>1195.427908983666</v>
       </c>
       <c r="K4" t="n">
         <v>1195.427908983667</v>
@@ -26829,7 +26829,7 @@
         <v>1027.857251102257</v>
       </c>
       <c r="P4" t="n">
-        <v>918.120414921764</v>
+        <v>918.1204149217642</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,13 +26935,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707821</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>-4.263256414560601e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>902.8176774066287</v>
+        <v>902.8176774066292</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27027,22 +27027,22 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>109.7368361804933</v>
+        <v>109.7368361804928</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>182.8733953965443</v>
+        <v>182.8733953965441</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>735.2470195252195</v>
+        <v>735.2470195252199</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>902.8176774066287</v>
+        <v>902.8176774066292</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>109.7368361804933</v>
+        <v>109.7368361804928</v>
       </c>
     </row>
   </sheetData>
@@ -27385,22 +27385,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>375.0889699229531</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>391.5733082265764</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>339.4748021157671</v>
+        <v>324.1720646006321</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>203.8732841087864</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27421,7 +27421,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -27430,7 +27430,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>207.7931120489963</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -27467,19 +27467,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>132.3371525163108</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>122.0407796480756</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>96.93270672136141</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>74.09389533628003</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27512,19 +27512,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>210.6386445658398</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>217.4978496342902</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>236.3922456457846</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>192.2040445739734</v>
       </c>
     </row>
     <row r="4">
@@ -27576,28 +27576,28 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>70.85930573655934</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>161.9906538620344</v>
+        <v>163.8147401738385</v>
       </c>
       <c r="S4" t="n">
         <v>208.7138605218372</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>212.6428519131464</v>
       </c>
       <c r="U4" t="n">
-        <v>275.5618188882664</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>271.220260821456</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27619,13 +27619,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>339.3803041055479</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>391.5733082265764</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27658,19 +27658,19 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>134.5663804260146</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>205.5321175974592</v>
+        <v>193.7173320711103</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>244.743047446217</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27713,10 +27713,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>74.09389533628003</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27746,13 +27746,13 @@
         <v>156.3804335887028</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>184.8619911796866</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>219.3219359460943</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -27761,7 +27761,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>192.9506359002313</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27780,16 +27780,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>132.9553114432382</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>130.1183105077962</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>152.6882418433237</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>146.9244349923045</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
         <v>155.4504749272583</v>
@@ -27816,22 +27816,22 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>70.85930573655934</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>208.7138605218372</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3190293564909</v>
+        <v>271.0162918413558</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>238.6589921204971</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27868,13 +27868,13 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>332.8721966541476</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27895,13 +27895,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>134.6010260184174</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>193.7173320711103</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -27913,7 +27913,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>333.938231202278</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27929,19 +27929,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>151.2304461347323</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>134.7130056875657</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>142.3423429402659</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>129.7664748782488</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
@@ -27950,10 +27950,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>74.09389533628003</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27977,7 +27977,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>86.67918294931219</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -27986,13 +27986,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>210.6386445658398</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>236.3922456457846</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -28020,13 +28020,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>131.9423968196003</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>152.6882418433237</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>146.9244349923045</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
         <v>155.4504749272583</v>
@@ -28053,22 +28053,22 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>70.85930573655934</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>208.7138605218372</v>
       </c>
       <c r="T10" t="n">
-        <v>212.6428519131464</v>
+        <v>214.4669382249506</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>236.834905808693</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28087,25 +28087,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="C11" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="D11" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="E11" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="F11" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="G11" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="H11" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="I11" t="n">
         <v>43.3538806070782</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="T11" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="U11" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="V11" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="W11" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="X11" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="Y11" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="C13" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="D13" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="E13" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="F13" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="G13" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="H13" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="I13" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="J13" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="K13" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="L13" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="M13" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="N13" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="O13" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="P13" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="Q13" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="R13" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="S13" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="T13" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="U13" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="V13" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="W13" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="X13" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="Y13" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707819</v>
       </c>
       <c r="C14" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707819</v>
       </c>
       <c r="D14" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707819</v>
       </c>
       <c r="E14" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707819</v>
       </c>
       <c r="F14" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707819</v>
       </c>
       <c r="G14" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707819</v>
       </c>
       <c r="H14" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707819</v>
       </c>
       <c r="I14" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707819</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707819</v>
       </c>
       <c r="T14" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707819</v>
       </c>
       <c r="U14" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707819</v>
       </c>
       <c r="V14" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707819</v>
       </c>
       <c r="W14" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707819</v>
       </c>
       <c r="X14" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707819</v>
       </c>
       <c r="Y14" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707819</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707819</v>
       </c>
       <c r="C16" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707819</v>
       </c>
       <c r="D16" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707819</v>
       </c>
       <c r="E16" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707819</v>
       </c>
       <c r="F16" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707819</v>
       </c>
       <c r="G16" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707819</v>
       </c>
       <c r="H16" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707819</v>
       </c>
       <c r="I16" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707819</v>
       </c>
       <c r="J16" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707819</v>
       </c>
       <c r="K16" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707819</v>
       </c>
       <c r="L16" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707819</v>
       </c>
       <c r="M16" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707819</v>
       </c>
       <c r="N16" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707819</v>
       </c>
       <c r="O16" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707819</v>
       </c>
       <c r="P16" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707819</v>
       </c>
       <c r="Q16" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707819</v>
       </c>
       <c r="R16" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707819</v>
       </c>
       <c r="S16" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707819</v>
       </c>
       <c r="T16" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707819</v>
       </c>
       <c r="U16" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707819</v>
       </c>
       <c r="V16" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707819</v>
       </c>
       <c r="W16" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707819</v>
       </c>
       <c r="X16" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707819</v>
       </c>
       <c r="Y16" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707819</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="C17" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="D17" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="E17" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="F17" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="G17" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="H17" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="I17" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="T17" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="U17" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="V17" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="W17" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="X17" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="Y17" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="C19" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="D19" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="E19" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="F19" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="G19" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="H19" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="I19" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="J19" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="K19" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="L19" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="M19" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="N19" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="O19" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="P19" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="Q19" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="R19" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="S19" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="T19" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="U19" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="V19" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="W19" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="X19" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="Y19" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="C20" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="D20" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="E20" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="F20" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="G20" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="H20" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="I20" t="n">
         <v>43.3538806070782</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="T20" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="U20" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="V20" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="W20" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="X20" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="Y20" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="C22" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="D22" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="E22" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="F22" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="G22" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="H22" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="I22" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="J22" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="K22" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="L22" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="M22" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="N22" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="O22" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="P22" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="Q22" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="R22" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="S22" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="T22" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="U22" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="V22" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="W22" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="X22" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="Y22" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>43.35388060707816</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="C23" t="n">
-        <v>43.35388060707816</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="D23" t="n">
-        <v>43.35388060707816</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="E23" t="n">
-        <v>43.35388060707816</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="F23" t="n">
-        <v>43.35388060707816</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="G23" t="n">
-        <v>43.35388060707816</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="H23" t="n">
-        <v>43.35388060707816</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="I23" t="n">
-        <v>43.35388060707816</v>
+        <v>43.3538806070782</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>43.35388060707816</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="T23" t="n">
-        <v>43.35388060707816</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="U23" t="n">
-        <v>43.35388060707816</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="V23" t="n">
-        <v>43.35388060707816</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="W23" t="n">
-        <v>43.35388060707816</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="X23" t="n">
-        <v>43.35388060707816</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="Y23" t="n">
-        <v>43.35388060707816</v>
+        <v>43.35388060707822</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>43.35388060707816</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="C25" t="n">
-        <v>43.35388060707816</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="D25" t="n">
-        <v>43.35388060707816</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="E25" t="n">
-        <v>43.35388060707816</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="F25" t="n">
-        <v>43.35388060707816</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="G25" t="n">
-        <v>43.35388060707816</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="H25" t="n">
-        <v>43.35388060707816</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="I25" t="n">
-        <v>43.35388060707816</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="J25" t="n">
-        <v>43.35388060707816</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="K25" t="n">
-        <v>43.35388060707816</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="L25" t="n">
-        <v>43.35388060707816</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="M25" t="n">
-        <v>43.35388060707816</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="N25" t="n">
-        <v>43.35388060707816</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="O25" t="n">
-        <v>43.35388060707816</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="P25" t="n">
-        <v>43.35388060707816</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="Q25" t="n">
-        <v>43.35388060707816</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="R25" t="n">
-        <v>43.35388060707816</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="S25" t="n">
-        <v>43.35388060707816</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="T25" t="n">
-        <v>43.35388060707816</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="U25" t="n">
-        <v>43.35388060707816</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="V25" t="n">
-        <v>43.35388060707816</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="W25" t="n">
-        <v>43.35388060707816</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="X25" t="n">
-        <v>43.35388060707816</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="Y25" t="n">
-        <v>43.35388060707816</v>
+        <v>43.35388060707822</v>
       </c>
     </row>
     <row r="26">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707821</v>
       </c>
       <c r="C35" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707821</v>
       </c>
       <c r="D35" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707821</v>
       </c>
       <c r="E35" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707821</v>
       </c>
       <c r="F35" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707821</v>
       </c>
       <c r="G35" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707821</v>
       </c>
       <c r="H35" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707821</v>
       </c>
       <c r="I35" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707821</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707821</v>
       </c>
       <c r="T35" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707821</v>
       </c>
       <c r="U35" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707821</v>
       </c>
       <c r="V35" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707821</v>
       </c>
       <c r="W35" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707821</v>
       </c>
       <c r="X35" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707821</v>
       </c>
       <c r="Y35" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707821</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707821</v>
       </c>
       <c r="C37" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707821</v>
       </c>
       <c r="D37" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707821</v>
       </c>
       <c r="E37" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707821</v>
       </c>
       <c r="F37" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707821</v>
       </c>
       <c r="G37" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707821</v>
       </c>
       <c r="H37" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707821</v>
       </c>
       <c r="I37" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707821</v>
       </c>
       <c r="J37" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707821</v>
       </c>
       <c r="K37" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707821</v>
       </c>
       <c r="L37" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707821</v>
       </c>
       <c r="M37" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707821</v>
       </c>
       <c r="N37" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707821</v>
       </c>
       <c r="O37" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707821</v>
       </c>
       <c r="P37" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707821</v>
       </c>
       <c r="Q37" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707821</v>
       </c>
       <c r="R37" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707821</v>
       </c>
       <c r="S37" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707821</v>
       </c>
       <c r="T37" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707821</v>
       </c>
       <c r="U37" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707821</v>
       </c>
       <c r="V37" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707821</v>
       </c>
       <c r="W37" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707821</v>
       </c>
       <c r="X37" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707821</v>
       </c>
       <c r="Y37" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707821</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707817</v>
       </c>
       <c r="C38" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707817</v>
       </c>
       <c r="D38" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707817</v>
       </c>
       <c r="E38" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707817</v>
       </c>
       <c r="F38" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707817</v>
       </c>
       <c r="G38" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707817</v>
       </c>
       <c r="H38" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707817</v>
       </c>
       <c r="I38" t="n">
         <v>43.3538806070782</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707817</v>
       </c>
       <c r="T38" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707817</v>
       </c>
       <c r="U38" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707817</v>
       </c>
       <c r="V38" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707817</v>
       </c>
       <c r="W38" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707817</v>
       </c>
       <c r="X38" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707817</v>
       </c>
       <c r="Y38" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707817</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707817</v>
       </c>
       <c r="C40" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707817</v>
       </c>
       <c r="D40" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707817</v>
       </c>
       <c r="E40" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707817</v>
       </c>
       <c r="F40" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707817</v>
       </c>
       <c r="G40" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707817</v>
       </c>
       <c r="H40" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707817</v>
       </c>
       <c r="I40" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707817</v>
       </c>
       <c r="J40" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707817</v>
       </c>
       <c r="K40" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707817</v>
       </c>
       <c r="L40" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707817</v>
       </c>
       <c r="M40" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707817</v>
       </c>
       <c r="N40" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707817</v>
       </c>
       <c r="O40" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707817</v>
       </c>
       <c r="P40" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707817</v>
       </c>
       <c r="Q40" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707817</v>
       </c>
       <c r="R40" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707817</v>
       </c>
       <c r="S40" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707817</v>
       </c>
       <c r="T40" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707817</v>
       </c>
       <c r="U40" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707817</v>
       </c>
       <c r="V40" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707817</v>
       </c>
       <c r="W40" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707817</v>
       </c>
       <c r="X40" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707817</v>
       </c>
       <c r="Y40" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707817</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="C41" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="D41" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="E41" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="F41" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="G41" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="H41" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="I41" t="n">
         <v>43.3538806070782</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="T41" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="U41" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="V41" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="W41" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="X41" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="Y41" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="C43" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="D43" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="E43" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="F43" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="G43" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="H43" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="I43" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="J43" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="K43" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="L43" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="M43" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="N43" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="O43" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="P43" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="Q43" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="R43" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="S43" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="T43" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="U43" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="V43" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="W43" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="X43" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="Y43" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="C44" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="D44" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="E44" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="F44" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="G44" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="H44" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="I44" t="n">
         <v>43.3538806070782</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="T44" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="U44" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="V44" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="W44" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="X44" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="Y44" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="C46" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="D46" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="E46" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="F46" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="G46" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="H46" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="I46" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="J46" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="K46" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="L46" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="M46" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="N46" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="O46" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="P46" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="Q46" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="R46" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="S46" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="T46" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="U46" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="V46" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="W46" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="X46" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
       <c r="Y46" t="n">
-        <v>43.3538806070782</v>
+        <v>43.35388060707822</v>
       </c>
     </row>
   </sheetData>
@@ -34699,22 +34699,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>14.68444509028111</v>
       </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="O2" t="n">
-        <v>15.30273751513505</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>14.68444509028111</v>
       </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34866,10 +34866,10 @@
         <v>15.30273751513505</v>
       </c>
       <c r="N4" t="n">
+        <v>14.68444509028111</v>
+      </c>
+      <c r="O4" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="O4" t="n">
-        <v>14.68444509028111</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34936,10 +34936,10 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="M5" t="n">
         <v>14.68444509028111</v>
@@ -34948,10 +34948,10 @@
         <v>15.30273751513505</v>
       </c>
       <c r="O5" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35015,16 +35015,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>14.68444509028111</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>14.68444509028111</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>15.30273751513505</v>
@@ -35033,7 +35033,7 @@
         <v>15.30273751513505</v>
       </c>
       <c r="Q6" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35097,7 +35097,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>15.30273751513505</v>
+        <v>14.68444509028111</v>
       </c>
       <c r="M7" t="n">
         <v>15.30273751513505</v>
@@ -35106,7 +35106,7 @@
         <v>15.30273751513505</v>
       </c>
       <c r="O7" t="n">
-        <v>14.68444509028111</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35173,16 +35173,16 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>14.68444509028111</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
       <c r="N8" t="n">
-        <v>14.68444509028111</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>15.30273751513505</v>
@@ -35255,22 +35255,22 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="N9" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="O9" t="n">
         <v>14.68444509028111</v>
       </c>
-      <c r="O9" t="n">
-        <v>15.30273751513505</v>
-      </c>
       <c r="P9" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35337,13 +35337,13 @@
         <v>15.30273751513505</v>
       </c>
       <c r="M10" t="n">
-        <v>15.30273751513505</v>
+        <v>14.68444509028111</v>
       </c>
       <c r="N10" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="O10" t="n">
-        <v>14.68444509028111</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -35407,10 +35407,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>355.9716394632653</v>
+        <v>186.8750242911916</v>
       </c>
       <c r="K11" t="n">
-        <v>331.3282475911363</v>
+        <v>655.473660162301</v>
       </c>
       <c r="L11" t="n">
         <v>448.316496111793</v>
@@ -35425,10 +35425,10 @@
         <v>500.2870654791595</v>
       </c>
       <c r="P11" t="n">
-        <v>392.1339400190051</v>
+        <v>401.2770218949286</v>
       </c>
       <c r="Q11" t="n">
-        <v>410.0087974140134</v>
+        <v>245.816918139001</v>
       </c>
       <c r="R11" t="n">
         <v>122.4343097365011</v>
@@ -35507,10 +35507,10 @@
         <v>308.9267354840535</v>
       </c>
       <c r="Q12" t="n">
-        <v>156.0859107620321</v>
+        <v>185.3678367141694</v>
       </c>
       <c r="R12" t="n">
-        <v>29.28192595213705</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.47056365647981</v>
+        <v>87.47056365647984</v>
       </c>
       <c r="K13" t="n">
         <v>246.9994628794891</v>
@@ -35577,7 +35577,7 @@
         <v>387.746335243166</v>
       </c>
       <c r="N13" t="n">
-        <v>385.0469639641301</v>
+        <v>385.0469639641302</v>
       </c>
       <c r="O13" t="n">
         <v>342.7846714381972</v>
@@ -35586,7 +35586,7 @@
         <v>275.8103855530123</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.0168567230977</v>
+        <v>120.0168567230978</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35650,19 +35650,19 @@
         <v>331.3282475911363</v>
       </c>
       <c r="L14" t="n">
-        <v>448.316496111793</v>
+        <v>525.5227022603808</v>
       </c>
       <c r="M14" t="n">
-        <v>918.1204149217638</v>
+        <v>530.8278140169244</v>
       </c>
       <c r="N14" t="n">
-        <v>555.7898889302126</v>
+        <v>544.0775755149834</v>
       </c>
       <c r="O14" t="n">
         <v>500.2870654791595</v>
       </c>
       <c r="P14" t="n">
-        <v>392.1339400190051</v>
+        <v>713.9326481904877</v>
       </c>
       <c r="Q14" t="n">
         <v>245.816918139001</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>355.9716394632653</v>
+        <v>186.8750242911916</v>
       </c>
       <c r="K17" t="n">
         <v>331.3282475911363</v>
@@ -35890,22 +35890,22 @@
         <v>448.316496111793</v>
       </c>
       <c r="M17" t="n">
-        <v>530.8278140169244</v>
+        <v>549.0325470742495</v>
       </c>
       <c r="N17" t="n">
         <v>544.0775755149834</v>
       </c>
       <c r="O17" t="n">
-        <v>500.2870654791595</v>
+        <v>881.0872467419049</v>
       </c>
       <c r="P17" t="n">
         <v>392.1339400190051</v>
       </c>
       <c r="Q17" t="n">
-        <v>410.0087974140134</v>
+        <v>245.816918139001</v>
       </c>
       <c r="R17" t="n">
-        <v>122.4343097365011</v>
+        <v>56.71788986351868</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.47056365647981</v>
+        <v>87.47056365647984</v>
       </c>
       <c r="K19" t="n">
         <v>246.9994628794891</v>
@@ -36060,7 +36060,7 @@
         <v>275.8103855530123</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.0168567230977</v>
+        <v>120.0168567230978</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>315.4478779364754</v>
+        <v>186.8750242911916</v>
       </c>
       <c r="K20" t="n">
         <v>655.473660162301</v>
@@ -36133,16 +36133,16 @@
         <v>544.0775755149834</v>
       </c>
       <c r="O20" t="n">
-        <v>881.0872467419049</v>
+        <v>500.2870654791595</v>
       </c>
       <c r="P20" t="n">
-        <v>392.1339400190051</v>
+        <v>713.9326481904877</v>
       </c>
       <c r="Q20" t="n">
-        <v>245.816918139001</v>
+        <v>367.6748250025651</v>
       </c>
       <c r="R20" t="n">
-        <v>56.71788986351868</v>
+        <v>122.4343097365011</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,10 +36200,10 @@
         <v>92.29355802656875</v>
       </c>
       <c r="K21" t="n">
-        <v>236.6886583679579</v>
+        <v>265.9705843200945</v>
       </c>
       <c r="L21" t="n">
-        <v>394.3294819337694</v>
+        <v>365.0475559816327</v>
       </c>
       <c r="M21" t="n">
         <v>445.5456717429094</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.47056365647981</v>
+        <v>87.47056365647984</v>
       </c>
       <c r="K22" t="n">
         <v>246.9994628794891</v>
@@ -36297,7 +36297,7 @@
         <v>275.8103855530123</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.0168567230977</v>
+        <v>120.0168567230978</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,7 +36358,7 @@
         <v>186.8750242911916</v>
       </c>
       <c r="K23" t="n">
-        <v>655.473660162301</v>
+        <v>565.0165763659608</v>
       </c>
       <c r="L23" t="n">
         <v>448.316496111793</v>
@@ -36370,13 +36370,13 @@
         <v>544.0775755149834</v>
       </c>
       <c r="O23" t="n">
-        <v>881.0872467419049</v>
+        <v>500.2870654791595</v>
       </c>
       <c r="P23" t="n">
-        <v>392.1339400190051</v>
+        <v>713.9326481904877</v>
       </c>
       <c r="Q23" t="n">
-        <v>308.6733519113033</v>
+        <v>458.1319087989057</v>
       </c>
       <c r="R23" t="n">
         <v>122.4343097365011</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.47056365647978</v>
+        <v>87.47056365647984</v>
       </c>
       <c r="K25" t="n">
-        <v>246.999462879489</v>
+        <v>246.9994628794891</v>
       </c>
       <c r="L25" t="n">
         <v>360.0374208754927</v>
@@ -36528,13 +36528,13 @@
         <v>385.0469639641301</v>
       </c>
       <c r="O25" t="n">
-        <v>342.7846714381971</v>
+        <v>342.7846714381972</v>
       </c>
       <c r="P25" t="n">
         <v>275.8103855530123</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.0168567230977</v>
+        <v>120.0168567230978</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,13 +36592,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>186.8750242911916</v>
+        <v>355.9716394632653</v>
       </c>
       <c r="K26" t="n">
-        <v>331.3282475911363</v>
+        <v>655.473660162301</v>
       </c>
       <c r="L26" t="n">
-        <v>865.9777106622435</v>
+        <v>565.2445578369952</v>
       </c>
       <c r="M26" t="n">
         <v>980.3413475097569</v>
@@ -36607,7 +36607,7 @@
         <v>981.4244999269675</v>
       </c>
       <c r="O26" t="n">
-        <v>692.795940397152</v>
+        <v>500.2870654791595</v>
       </c>
       <c r="P26" t="n">
         <v>392.1339400190051</v>
@@ -36683,7 +36683,7 @@
         <v>445.5456717429094</v>
       </c>
       <c r="N27" t="n">
-        <v>471.8921266950042</v>
+        <v>501.1740526471413</v>
       </c>
       <c r="O27" t="n">
         <v>409.2448667413845</v>
@@ -36695,7 +36695,7 @@
         <v>156.0859107620321</v>
       </c>
       <c r="R27" t="n">
-        <v>29.28192595213705</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36835,22 +36835,22 @@
         <v>655.473660162301</v>
       </c>
       <c r="L29" t="n">
-        <v>734.3411730090708</v>
+        <v>865.9777106622435</v>
       </c>
       <c r="M29" t="n">
         <v>980.3413475097569</v>
       </c>
       <c r="N29" t="n">
-        <v>981.4244999269675</v>
+        <v>544.0775755149834</v>
       </c>
       <c r="O29" t="n">
         <v>500.2870654791595</v>
       </c>
       <c r="P29" t="n">
-        <v>392.1339400190051</v>
+        <v>485.529336117912</v>
       </c>
       <c r="Q29" t="n">
-        <v>245.816918139001</v>
+        <v>458.1319087989057</v>
       </c>
       <c r="R29" t="n">
         <v>56.71788986351868</v>
@@ -36911,7 +36911,7 @@
         <v>92.29355802656875</v>
       </c>
       <c r="K30" t="n">
-        <v>265.9705843200948</v>
+        <v>236.6886583679579</v>
       </c>
       <c r="L30" t="n">
         <v>365.0475559816327</v>
@@ -36932,7 +36932,7 @@
         <v>156.0859107620321</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>29.28192595213705</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37072,7 +37072,7 @@
         <v>331.3282475911363</v>
       </c>
       <c r="L32" t="n">
-        <v>865.9777106622435</v>
+        <v>448.316496111793</v>
       </c>
       <c r="M32" t="n">
         <v>980.3413475097569</v>
@@ -37081,16 +37081,16 @@
         <v>981.4244999269675</v>
       </c>
       <c r="O32" t="n">
-        <v>692.795940397152</v>
+        <v>510.6270362432327</v>
       </c>
       <c r="P32" t="n">
-        <v>392.1339400190051</v>
+        <v>713.9326481904877</v>
       </c>
       <c r="Q32" t="n">
-        <v>245.816918139001</v>
+        <v>458.1319087989057</v>
       </c>
       <c r="R32" t="n">
-        <v>56.71788986351868</v>
+        <v>122.4343097365011</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>92.29355802656875</v>
+        <v>121.5754839787057</v>
       </c>
       <c r="K33" t="n">
         <v>236.6886583679579</v>
@@ -37169,7 +37169,7 @@
         <v>156.0859107620321</v>
       </c>
       <c r="R33" t="n">
-        <v>29.28192595213705</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37306,25 +37306,25 @@
         <v>186.8750242911916</v>
       </c>
       <c r="K35" t="n">
-        <v>655.473660162301</v>
+        <v>331.3282475911363</v>
       </c>
       <c r="L35" t="n">
         <v>448.316496111793</v>
       </c>
       <c r="M35" t="n">
-        <v>530.8278140169244</v>
+        <v>830.2325626647322</v>
       </c>
       <c r="N35" t="n">
         <v>544.0775755149834</v>
       </c>
       <c r="O35" t="n">
-        <v>881.0872467419049</v>
+        <v>500.2870654791595</v>
       </c>
       <c r="P35" t="n">
-        <v>520.7067936642898</v>
+        <v>713.9326481904877</v>
       </c>
       <c r="Q35" t="n">
-        <v>245.816918139001</v>
+        <v>458.1319087989057</v>
       </c>
       <c r="R35" t="n">
         <v>56.71788986351868</v>
@@ -37385,7 +37385,7 @@
         <v>92.29355802656875</v>
       </c>
       <c r="K36" t="n">
-        <v>236.6886583679579</v>
+        <v>265.9705843200945</v>
       </c>
       <c r="L36" t="n">
         <v>365.0475559816327</v>
@@ -37403,7 +37403,7 @@
         <v>308.9267354840535</v>
       </c>
       <c r="Q36" t="n">
-        <v>185.3678367141689</v>
+        <v>156.0859107620321</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.47056365647981</v>
+        <v>87.47056365647983</v>
       </c>
       <c r="K37" t="n">
         <v>246.9994628794891</v>
@@ -37473,7 +37473,7 @@
         <v>387.746335243166</v>
       </c>
       <c r="N37" t="n">
-        <v>385.0469639641301</v>
+        <v>385.0469639641302</v>
       </c>
       <c r="O37" t="n">
         <v>342.7846714381972</v>
@@ -37482,7 +37482,7 @@
         <v>275.8103855530123</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.0168567230977</v>
+        <v>120.0168567230978</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37543,10 +37543,10 @@
         <v>186.8750242911916</v>
       </c>
       <c r="K38" t="n">
-        <v>655.473660162301</v>
+        <v>331.3282475911363</v>
       </c>
       <c r="L38" t="n">
-        <v>448.316496111793</v>
+        <v>865.9777106622435</v>
       </c>
       <c r="M38" t="n">
         <v>530.8278140169244</v>
@@ -37555,13 +37555,13 @@
         <v>544.0775755149834</v>
       </c>
       <c r="O38" t="n">
-        <v>500.2870654791595</v>
+        <v>594.3455902364216</v>
       </c>
       <c r="P38" t="n">
-        <v>689.1919842671307</v>
+        <v>713.9326481904877</v>
       </c>
       <c r="Q38" t="n">
-        <v>458.1319087989057</v>
+        <v>245.816918139001</v>
       </c>
       <c r="R38" t="n">
         <v>56.71788986351868</v>
@@ -37637,13 +37637,13 @@
         <v>409.2448667413845</v>
       </c>
       <c r="P39" t="n">
-        <v>308.9267354840535</v>
+        <v>338.2086614361901</v>
       </c>
       <c r="Q39" t="n">
         <v>156.0859107620321</v>
       </c>
       <c r="R39" t="n">
-        <v>29.28192595213659</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.47056365647981</v>
+        <v>87.47056365647978</v>
       </c>
       <c r="K40" t="n">
-        <v>246.9994628794891</v>
+        <v>246.999462879489</v>
       </c>
       <c r="L40" t="n">
         <v>360.0374208754927</v>
@@ -37713,7 +37713,7 @@
         <v>385.0469639641301</v>
       </c>
       <c r="O40" t="n">
-        <v>342.7846714381972</v>
+        <v>342.7846714381971</v>
       </c>
       <c r="P40" t="n">
         <v>275.8103855530123</v>
@@ -37777,22 +37777,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>355.9716394632653</v>
+        <v>186.8750242911916</v>
       </c>
       <c r="K41" t="n">
-        <v>331.3282475911363</v>
+        <v>655.473660162301</v>
       </c>
       <c r="L41" t="n">
-        <v>666.2217272831863</v>
+        <v>454.6261867348557</v>
       </c>
       <c r="M41" t="n">
         <v>530.8278140169244</v>
       </c>
       <c r="N41" t="n">
-        <v>544.0775755149834</v>
+        <v>981.4244999269675</v>
       </c>
       <c r="O41" t="n">
-        <v>881.0872467419049</v>
+        <v>500.2870654791595</v>
       </c>
       <c r="P41" t="n">
         <v>392.1339400190051</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.47056365647981</v>
+        <v>87.47056365647984</v>
       </c>
       <c r="K43" t="n">
         <v>246.9994628794891</v>
@@ -37947,7 +37947,7 @@
         <v>387.746335243166</v>
       </c>
       <c r="N43" t="n">
-        <v>385.0469639641301</v>
+        <v>385.0469639641302</v>
       </c>
       <c r="O43" t="n">
         <v>342.7846714381972</v>
@@ -37956,7 +37956,7 @@
         <v>275.8103855530123</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.0168567230977</v>
+        <v>120.0168567230978</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,10 +38017,10 @@
         <v>186.8750242911916</v>
       </c>
       <c r="K44" t="n">
-        <v>655.473660162301</v>
+        <v>331.3282475911363</v>
       </c>
       <c r="L44" t="n">
-        <v>448.316496111793</v>
+        <v>847.3214104318636</v>
       </c>
       <c r="M44" t="n">
         <v>530.8278140169244</v>
@@ -38035,10 +38035,10 @@
         <v>392.1339400190051</v>
       </c>
       <c r="Q44" t="n">
-        <v>254.9600000149237</v>
+        <v>245.816918139001</v>
       </c>
       <c r="R44" t="n">
-        <v>122.4343097365011</v>
+        <v>56.71788986351868</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38114,10 +38114,10 @@
         <v>308.9267354840535</v>
       </c>
       <c r="Q45" t="n">
-        <v>156.0859107620321</v>
+        <v>185.3678367141694</v>
       </c>
       <c r="R45" t="n">
-        <v>29.28192595213705</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.47056365647981</v>
+        <v>87.47056365647984</v>
       </c>
       <c r="K46" t="n">
         <v>246.9994628794891</v>
@@ -38184,7 +38184,7 @@
         <v>387.746335243166</v>
       </c>
       <c r="N46" t="n">
-        <v>385.0469639641301</v>
+        <v>385.0469639641302</v>
       </c>
       <c r="O46" t="n">
         <v>342.7846714381972</v>
@@ -38193,7 +38193,7 @@
         <v>275.8103855530123</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.0168567230977</v>
+        <v>120.0168567230978</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
